--- a/Project_Of_HardwareSystem_2022/2022秋硬件综合训练课设资料发布包/RISC-V指令集手册/RISC-V指令码表(HUST).xlsx
+++ b/Project_Of_HardwareSystem_2022/2022秋硬件综合训练课设资料发布包/RISC-V指令集手册/RISC-V指令码表(HUST).xlsx
@@ -1,19 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F1BF71-26C9-4406-90BD-3F39227A97FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -497,7 +505,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -886,6 +894,24 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -895,34 +921,37 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -964,28 +993,7 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1267,21 +1275,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="B42" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="8.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" customWidth="1"/>
-    <col min="4" max="35" width="2.625" customWidth="1"/>
+    <col min="4" max="35" width="2.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>86</v>
       </c>
@@ -1414,7 +1422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1422,48 +1430,48 @@
         <v>88</v>
       </c>
       <c r="C2" s="6"/>
-      <c r="D2" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="51" t="s">
+      <c r="D2" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="54" t="s">
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="57" t="s">
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="V2" s="49"/>
-      <c r="W2" s="50"/>
-      <c r="X2" s="58" t="s">
+      <c r="V2" s="56"/>
+      <c r="W2" s="57"/>
+      <c r="X2" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="59"/>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="60"/>
-      <c r="AC2" s="57" t="s">
+      <c r="Y2" s="66"/>
+      <c r="Z2" s="66"/>
+      <c r="AA2" s="66"/>
+      <c r="AB2" s="67"/>
+      <c r="AC2" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="AD2" s="49"/>
-      <c r="AE2" s="49"/>
-      <c r="AF2" s="49"/>
-      <c r="AG2" s="50"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="56"/>
+      <c r="AG2" s="57"/>
       <c r="AH2" s="7">
         <v>1</v>
       </c>
@@ -1471,7 +1479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1502,39 +1510,39 @@
       <c r="J3" s="10">
         <v>0</v>
       </c>
-      <c r="K3" s="40" t="s">
+      <c r="K3" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40" t="s">
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40">
-        <v>0</v>
-      </c>
-      <c r="V3" s="40"/>
-      <c r="W3" s="40"/>
-      <c r="X3" s="40" t="s">
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37">
+        <v>0</v>
+      </c>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="Y3" s="40"/>
-      <c r="Z3" s="40"/>
-      <c r="AA3" s="40"/>
-      <c r="AB3" s="40"/>
-      <c r="AC3" s="40" t="s">
+      <c r="Y3" s="37"/>
+      <c r="Z3" s="37"/>
+      <c r="AA3" s="37"/>
+      <c r="AB3" s="37"/>
+      <c r="AC3" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="AD3" s="40"/>
-      <c r="AE3" s="40"/>
-      <c r="AF3" s="40"/>
-      <c r="AG3" s="40"/>
+      <c r="AD3" s="37"/>
+      <c r="AE3" s="37"/>
+      <c r="AF3" s="37"/>
+      <c r="AG3" s="37"/>
       <c r="AH3" s="11">
         <v>1</v>
       </c>
@@ -1542,7 +1550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1573,39 +1581,39 @@
       <c r="J4" s="10">
         <v>0</v>
       </c>
-      <c r="K4" s="40" t="s">
+      <c r="K4" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40" t="s">
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="40"/>
-      <c r="S4" s="40"/>
-      <c r="T4" s="40"/>
-      <c r="U4" s="40">
-        <v>0</v>
-      </c>
-      <c r="V4" s="40"/>
-      <c r="W4" s="40"/>
-      <c r="X4" s="40" t="s">
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="37"/>
+      <c r="U4" s="37">
+        <v>0</v>
+      </c>
+      <c r="V4" s="37"/>
+      <c r="W4" s="37"/>
+      <c r="X4" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="Y4" s="40"/>
-      <c r="Z4" s="40"/>
-      <c r="AA4" s="40"/>
-      <c r="AB4" s="40"/>
-      <c r="AC4" s="40" t="s">
+      <c r="Y4" s="37"/>
+      <c r="Z4" s="37"/>
+      <c r="AA4" s="37"/>
+      <c r="AB4" s="37"/>
+      <c r="AC4" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="AD4" s="40"/>
-      <c r="AE4" s="40"/>
-      <c r="AF4" s="40"/>
-      <c r="AG4" s="40"/>
+      <c r="AD4" s="37"/>
+      <c r="AE4" s="37"/>
+      <c r="AF4" s="37"/>
+      <c r="AG4" s="37"/>
       <c r="AH4" s="11">
         <v>1</v>
       </c>
@@ -1613,7 +1621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -1644,39 +1652,39 @@
       <c r="J5" s="10">
         <v>0</v>
       </c>
-      <c r="K5" s="40" t="s">
+      <c r="K5" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40" t="s">
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="40"/>
-      <c r="S5" s="40"/>
-      <c r="T5" s="40"/>
-      <c r="U5" s="40">
-        <v>1</v>
-      </c>
-      <c r="V5" s="40"/>
-      <c r="W5" s="40"/>
-      <c r="X5" s="40" t="s">
+      <c r="Q5" s="37"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="37"/>
+      <c r="T5" s="37"/>
+      <c r="U5" s="37">
+        <v>1</v>
+      </c>
+      <c r="V5" s="37"/>
+      <c r="W5" s="37"/>
+      <c r="X5" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="Y5" s="40"/>
-      <c r="Z5" s="40"/>
-      <c r="AA5" s="40"/>
-      <c r="AB5" s="40"/>
-      <c r="AC5" s="40" t="s">
+      <c r="Y5" s="37"/>
+      <c r="Z5" s="37"/>
+      <c r="AA5" s="37"/>
+      <c r="AB5" s="37"/>
+      <c r="AC5" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="AD5" s="40"/>
-      <c r="AE5" s="40"/>
-      <c r="AF5" s="40"/>
-      <c r="AG5" s="40"/>
+      <c r="AD5" s="37"/>
+      <c r="AE5" s="37"/>
+      <c r="AF5" s="37"/>
+      <c r="AG5" s="37"/>
       <c r="AH5" s="11">
         <v>1</v>
       </c>
@@ -1684,7 +1692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1715,39 +1723,39 @@
       <c r="J6" s="10">
         <v>0</v>
       </c>
-      <c r="K6" s="40" t="s">
+      <c r="K6" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40" t="s">
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="40"/>
-      <c r="S6" s="40"/>
-      <c r="T6" s="40"/>
-      <c r="U6" s="40">
+      <c r="Q6" s="37"/>
+      <c r="R6" s="37"/>
+      <c r="S6" s="37"/>
+      <c r="T6" s="37"/>
+      <c r="U6" s="37">
         <v>2</v>
       </c>
-      <c r="V6" s="40"/>
-      <c r="W6" s="40"/>
-      <c r="X6" s="40" t="s">
+      <c r="V6" s="37"/>
+      <c r="W6" s="37"/>
+      <c r="X6" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="Y6" s="40"/>
-      <c r="Z6" s="40"/>
-      <c r="AA6" s="40"/>
-      <c r="AB6" s="40"/>
-      <c r="AC6" s="40" t="s">
+      <c r="Y6" s="37"/>
+      <c r="Z6" s="37"/>
+      <c r="AA6" s="37"/>
+      <c r="AB6" s="37"/>
+      <c r="AC6" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="AD6" s="40"/>
-      <c r="AE6" s="40"/>
-      <c r="AF6" s="40"/>
-      <c r="AG6" s="40"/>
+      <c r="AD6" s="37"/>
+      <c r="AE6" s="37"/>
+      <c r="AF6" s="37"/>
+      <c r="AG6" s="37"/>
       <c r="AH6" s="11">
         <v>1</v>
       </c>
@@ -1755,7 +1763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
@@ -1786,39 +1794,39 @@
       <c r="J7" s="10">
         <v>0</v>
       </c>
-      <c r="K7" s="40" t="s">
+      <c r="K7" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40" t="s">
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="40"/>
-      <c r="S7" s="40"/>
-      <c r="T7" s="40"/>
-      <c r="U7" s="40">
+      <c r="Q7" s="37"/>
+      <c r="R7" s="37"/>
+      <c r="S7" s="37"/>
+      <c r="T7" s="37"/>
+      <c r="U7" s="37">
         <v>3</v>
       </c>
-      <c r="V7" s="40"/>
-      <c r="W7" s="40"/>
-      <c r="X7" s="40" t="s">
+      <c r="V7" s="37"/>
+      <c r="W7" s="37"/>
+      <c r="X7" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="Y7" s="40"/>
-      <c r="Z7" s="40"/>
-      <c r="AA7" s="40"/>
-      <c r="AB7" s="40"/>
-      <c r="AC7" s="40" t="s">
+      <c r="Y7" s="37"/>
+      <c r="Z7" s="37"/>
+      <c r="AA7" s="37"/>
+      <c r="AB7" s="37"/>
+      <c r="AC7" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="AD7" s="40"/>
-      <c r="AE7" s="40"/>
-      <c r="AF7" s="40"/>
-      <c r="AG7" s="40"/>
+      <c r="AD7" s="37"/>
+      <c r="AE7" s="37"/>
+      <c r="AF7" s="37"/>
+      <c r="AG7" s="37"/>
       <c r="AH7" s="11">
         <v>1</v>
       </c>
@@ -1826,7 +1834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
@@ -1857,39 +1865,39 @@
       <c r="J8" s="10">
         <v>0</v>
       </c>
-      <c r="K8" s="40" t="s">
+      <c r="K8" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40" t="s">
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="Q8" s="40"/>
-      <c r="R8" s="40"/>
-      <c r="S8" s="40"/>
-      <c r="T8" s="40"/>
-      <c r="U8" s="40">
+      <c r="Q8" s="37"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="37"/>
+      <c r="U8" s="37">
         <v>4</v>
       </c>
-      <c r="V8" s="40"/>
-      <c r="W8" s="40"/>
-      <c r="X8" s="40" t="s">
+      <c r="V8" s="37"/>
+      <c r="W8" s="37"/>
+      <c r="X8" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="Y8" s="40"/>
-      <c r="Z8" s="40"/>
-      <c r="AA8" s="40"/>
-      <c r="AB8" s="40"/>
-      <c r="AC8" s="40" t="s">
+      <c r="Y8" s="37"/>
+      <c r="Z8" s="37"/>
+      <c r="AA8" s="37"/>
+      <c r="AB8" s="37"/>
+      <c r="AC8" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="AD8" s="40"/>
-      <c r="AE8" s="40"/>
-      <c r="AF8" s="40"/>
-      <c r="AG8" s="40"/>
+      <c r="AD8" s="37"/>
+      <c r="AE8" s="37"/>
+      <c r="AF8" s="37"/>
+      <c r="AG8" s="37"/>
       <c r="AH8" s="11">
         <v>1</v>
       </c>
@@ -1897,7 +1905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
@@ -1928,39 +1936,39 @@
       <c r="J9" s="10">
         <v>0</v>
       </c>
-      <c r="K9" s="40" t="s">
+      <c r="K9" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40" t="s">
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="40"/>
-      <c r="T9" s="40"/>
-      <c r="U9" s="40">
+      <c r="Q9" s="37"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="37"/>
+      <c r="T9" s="37"/>
+      <c r="U9" s="37">
         <v>5</v>
       </c>
-      <c r="V9" s="40"/>
-      <c r="W9" s="40"/>
-      <c r="X9" s="40" t="s">
+      <c r="V9" s="37"/>
+      <c r="W9" s="37"/>
+      <c r="X9" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="Y9" s="40"/>
-      <c r="Z9" s="40"/>
-      <c r="AA9" s="40"/>
-      <c r="AB9" s="40"/>
-      <c r="AC9" s="40" t="s">
+      <c r="Y9" s="37"/>
+      <c r="Z9" s="37"/>
+      <c r="AA9" s="37"/>
+      <c r="AB9" s="37"/>
+      <c r="AC9" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="AD9" s="40"/>
-      <c r="AE9" s="40"/>
-      <c r="AF9" s="40"/>
-      <c r="AG9" s="40"/>
+      <c r="AD9" s="37"/>
+      <c r="AE9" s="37"/>
+      <c r="AF9" s="37"/>
+      <c r="AG9" s="37"/>
       <c r="AH9" s="11">
         <v>1</v>
       </c>
@@ -1968,7 +1976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
@@ -1999,39 +2007,39 @@
       <c r="J10" s="10">
         <v>0</v>
       </c>
-      <c r="K10" s="40" t="s">
+      <c r="K10" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40" t="s">
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="Q10" s="40"/>
-      <c r="R10" s="40"/>
-      <c r="S10" s="40"/>
-      <c r="T10" s="40"/>
-      <c r="U10" s="40">
+      <c r="Q10" s="37"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="37"/>
+      <c r="T10" s="37"/>
+      <c r="U10" s="37">
         <v>5</v>
       </c>
-      <c r="V10" s="40"/>
-      <c r="W10" s="40"/>
-      <c r="X10" s="40" t="s">
+      <c r="V10" s="37"/>
+      <c r="W10" s="37"/>
+      <c r="X10" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="Y10" s="40"/>
-      <c r="Z10" s="40"/>
-      <c r="AA10" s="40"/>
-      <c r="AB10" s="40"/>
-      <c r="AC10" s="40" t="s">
+      <c r="Y10" s="37"/>
+      <c r="Z10" s="37"/>
+      <c r="AA10" s="37"/>
+      <c r="AB10" s="37"/>
+      <c r="AC10" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="AD10" s="40"/>
-      <c r="AE10" s="40"/>
-      <c r="AF10" s="40"/>
-      <c r="AG10" s="40"/>
+      <c r="AD10" s="37"/>
+      <c r="AE10" s="37"/>
+      <c r="AF10" s="37"/>
+      <c r="AG10" s="37"/>
       <c r="AH10" s="11">
         <v>1</v>
       </c>
@@ -2039,7 +2047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
@@ -2070,39 +2078,39 @@
       <c r="J11" s="10">
         <v>0</v>
       </c>
-      <c r="K11" s="40" t="s">
+      <c r="K11" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="40"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="40" t="s">
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="Q11" s="40"/>
-      <c r="R11" s="40"/>
-      <c r="S11" s="40"/>
-      <c r="T11" s="40"/>
-      <c r="U11" s="40">
+      <c r="Q11" s="37"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="37"/>
+      <c r="T11" s="37"/>
+      <c r="U11" s="37">
         <v>6</v>
       </c>
-      <c r="V11" s="40"/>
-      <c r="W11" s="40"/>
-      <c r="X11" s="40" t="s">
+      <c r="V11" s="37"/>
+      <c r="W11" s="37"/>
+      <c r="X11" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="Y11" s="40"/>
-      <c r="Z11" s="40"/>
-      <c r="AA11" s="40"/>
-      <c r="AB11" s="40"/>
-      <c r="AC11" s="40" t="s">
+      <c r="Y11" s="37"/>
+      <c r="Z11" s="37"/>
+      <c r="AA11" s="37"/>
+      <c r="AB11" s="37"/>
+      <c r="AC11" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="AD11" s="40"/>
-      <c r="AE11" s="40"/>
-      <c r="AF11" s="40"/>
-      <c r="AG11" s="40"/>
+      <c r="AD11" s="37"/>
+      <c r="AE11" s="37"/>
+      <c r="AF11" s="37"/>
+      <c r="AG11" s="37"/>
       <c r="AH11" s="11">
         <v>1</v>
       </c>
@@ -2110,7 +2118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>0</v>
       </c>
@@ -2141,39 +2149,39 @@
       <c r="J12" s="10">
         <v>0</v>
       </c>
-      <c r="K12" s="40" t="s">
+      <c r="K12" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
-      <c r="N12" s="40"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="40" t="s">
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="Q12" s="40"/>
-      <c r="R12" s="40"/>
-      <c r="S12" s="40"/>
-      <c r="T12" s="40"/>
-      <c r="U12" s="40">
+      <c r="Q12" s="37"/>
+      <c r="R12" s="37"/>
+      <c r="S12" s="37"/>
+      <c r="T12" s="37"/>
+      <c r="U12" s="37">
         <v>7</v>
       </c>
-      <c r="V12" s="40"/>
-      <c r="W12" s="40"/>
-      <c r="X12" s="40" t="s">
+      <c r="V12" s="37"/>
+      <c r="W12" s="37"/>
+      <c r="X12" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="Y12" s="40"/>
-      <c r="Z12" s="40"/>
-      <c r="AA12" s="40"/>
-      <c r="AB12" s="40"/>
-      <c r="AC12" s="40" t="s">
+      <c r="Y12" s="37"/>
+      <c r="Z12" s="37"/>
+      <c r="AA12" s="37"/>
+      <c r="AB12" s="37"/>
+      <c r="AC12" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="AD12" s="40"/>
-      <c r="AE12" s="40"/>
-      <c r="AF12" s="40"/>
-      <c r="AG12" s="40"/>
+      <c r="AD12" s="37"/>
+      <c r="AE12" s="37"/>
+      <c r="AF12" s="37"/>
+      <c r="AG12" s="37"/>
       <c r="AH12" s="11">
         <v>1</v>
       </c>
@@ -2181,7 +2189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>0</v>
       </c>
@@ -2212,39 +2220,39 @@
       <c r="J13" s="13">
         <v>1</v>
       </c>
-      <c r="K13" s="40" t="s">
+      <c r="K13" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="40" t="s">
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="Q13" s="40"/>
-      <c r="R13" s="40"/>
-      <c r="S13" s="40"/>
-      <c r="T13" s="40"/>
-      <c r="U13" s="40">
-        <v>0</v>
-      </c>
-      <c r="V13" s="40"/>
-      <c r="W13" s="40"/>
-      <c r="X13" s="40" t="s">
+      <c r="Q13" s="37"/>
+      <c r="R13" s="37"/>
+      <c r="S13" s="37"/>
+      <c r="T13" s="37"/>
+      <c r="U13" s="37">
+        <v>0</v>
+      </c>
+      <c r="V13" s="37"/>
+      <c r="W13" s="37"/>
+      <c r="X13" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="Y13" s="40"/>
-      <c r="Z13" s="40"/>
-      <c r="AA13" s="40"/>
-      <c r="AB13" s="40"/>
-      <c r="AC13" s="40" t="s">
+      <c r="Y13" s="37"/>
+      <c r="Z13" s="37"/>
+      <c r="AA13" s="37"/>
+      <c r="AB13" s="37"/>
+      <c r="AC13" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="AD13" s="40"/>
-      <c r="AE13" s="40"/>
-      <c r="AF13" s="40"/>
-      <c r="AG13" s="40"/>
+      <c r="AD13" s="37"/>
+      <c r="AE13" s="37"/>
+      <c r="AF13" s="37"/>
+      <c r="AG13" s="37"/>
       <c r="AH13" s="11">
         <v>1</v>
       </c>
@@ -2252,7 +2260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>0</v>
       </c>
@@ -2283,39 +2291,39 @@
       <c r="J14" s="13">
         <v>1</v>
       </c>
-      <c r="K14" s="40" t="s">
+      <c r="K14" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="40" t="s">
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="Q14" s="40"/>
-      <c r="R14" s="40"/>
-      <c r="S14" s="40"/>
-      <c r="T14" s="40"/>
-      <c r="U14" s="40">
-        <v>1</v>
-      </c>
-      <c r="V14" s="40"/>
-      <c r="W14" s="40"/>
-      <c r="X14" s="40" t="s">
+      <c r="Q14" s="37"/>
+      <c r="R14" s="37"/>
+      <c r="S14" s="37"/>
+      <c r="T14" s="37"/>
+      <c r="U14" s="37">
+        <v>1</v>
+      </c>
+      <c r="V14" s="37"/>
+      <c r="W14" s="37"/>
+      <c r="X14" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="Y14" s="40"/>
-      <c r="Z14" s="40"/>
-      <c r="AA14" s="40"/>
-      <c r="AB14" s="40"/>
-      <c r="AC14" s="40" t="s">
+      <c r="Y14" s="37"/>
+      <c r="Z14" s="37"/>
+      <c r="AA14" s="37"/>
+      <c r="AB14" s="37"/>
+      <c r="AC14" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="AD14" s="40"/>
-      <c r="AE14" s="40"/>
-      <c r="AF14" s="40"/>
-      <c r="AG14" s="40"/>
+      <c r="AD14" s="37"/>
+      <c r="AE14" s="37"/>
+      <c r="AF14" s="37"/>
+      <c r="AG14" s="37"/>
       <c r="AH14" s="11">
         <v>1</v>
       </c>
@@ -2323,7 +2331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>0</v>
       </c>
@@ -2354,39 +2362,39 @@
       <c r="J15" s="13">
         <v>1</v>
       </c>
-      <c r="K15" s="40" t="s">
+      <c r="K15" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="40" t="s">
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="Q15" s="40"/>
-      <c r="R15" s="40"/>
-      <c r="S15" s="40"/>
-      <c r="T15" s="40"/>
-      <c r="U15" s="40">
+      <c r="Q15" s="37"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="37"/>
+      <c r="T15" s="37"/>
+      <c r="U15" s="37">
         <v>2</v>
       </c>
-      <c r="V15" s="40"/>
-      <c r="W15" s="40"/>
-      <c r="X15" s="40" t="s">
+      <c r="V15" s="37"/>
+      <c r="W15" s="37"/>
+      <c r="X15" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="Y15" s="40"/>
-      <c r="Z15" s="40"/>
-      <c r="AA15" s="40"/>
-      <c r="AB15" s="40"/>
-      <c r="AC15" s="40" t="s">
+      <c r="Y15" s="37"/>
+      <c r="Z15" s="37"/>
+      <c r="AA15" s="37"/>
+      <c r="AB15" s="37"/>
+      <c r="AC15" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="AD15" s="40"/>
-      <c r="AE15" s="40"/>
-      <c r="AF15" s="40"/>
-      <c r="AG15" s="40"/>
+      <c r="AD15" s="37"/>
+      <c r="AE15" s="37"/>
+      <c r="AF15" s="37"/>
+      <c r="AG15" s="37"/>
       <c r="AH15" s="11">
         <v>1</v>
       </c>
@@ -2394,7 +2402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>0</v>
       </c>
@@ -2425,39 +2433,39 @@
       <c r="J16" s="13">
         <v>1</v>
       </c>
-      <c r="K16" s="40" t="s">
+      <c r="K16" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="40"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="40" t="s">
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="Q16" s="40"/>
-      <c r="R16" s="40"/>
-      <c r="S16" s="40"/>
-      <c r="T16" s="40"/>
-      <c r="U16" s="40">
+      <c r="Q16" s="37"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="37"/>
+      <c r="T16" s="37"/>
+      <c r="U16" s="37">
         <v>3</v>
       </c>
-      <c r="V16" s="40"/>
-      <c r="W16" s="40"/>
-      <c r="X16" s="40" t="s">
+      <c r="V16" s="37"/>
+      <c r="W16" s="37"/>
+      <c r="X16" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="Y16" s="40"/>
-      <c r="Z16" s="40"/>
-      <c r="AA16" s="40"/>
-      <c r="AB16" s="40"/>
-      <c r="AC16" s="40" t="s">
+      <c r="Y16" s="37"/>
+      <c r="Z16" s="37"/>
+      <c r="AA16" s="37"/>
+      <c r="AB16" s="37"/>
+      <c r="AC16" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="AD16" s="40"/>
-      <c r="AE16" s="40"/>
-      <c r="AF16" s="40"/>
-      <c r="AG16" s="40"/>
+      <c r="AD16" s="37"/>
+      <c r="AE16" s="37"/>
+      <c r="AF16" s="37"/>
+      <c r="AG16" s="37"/>
       <c r="AH16" s="11">
         <v>1</v>
       </c>
@@ -2465,7 +2473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>0</v>
       </c>
@@ -2496,39 +2504,39 @@
       <c r="J17" s="13">
         <v>1</v>
       </c>
-      <c r="K17" s="40" t="s">
+      <c r="K17" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="40" t="s">
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="Q17" s="40"/>
-      <c r="R17" s="40"/>
-      <c r="S17" s="40"/>
-      <c r="T17" s="40"/>
-      <c r="U17" s="40">
+      <c r="Q17" s="37"/>
+      <c r="R17" s="37"/>
+      <c r="S17" s="37"/>
+      <c r="T17" s="37"/>
+      <c r="U17" s="37">
         <v>4</v>
       </c>
-      <c r="V17" s="40"/>
-      <c r="W17" s="40"/>
-      <c r="X17" s="40" t="s">
+      <c r="V17" s="37"/>
+      <c r="W17" s="37"/>
+      <c r="X17" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="Y17" s="40"/>
-      <c r="Z17" s="40"/>
-      <c r="AA17" s="40"/>
-      <c r="AB17" s="40"/>
-      <c r="AC17" s="40" t="s">
+      <c r="Y17" s="37"/>
+      <c r="Z17" s="37"/>
+      <c r="AA17" s="37"/>
+      <c r="AB17" s="37"/>
+      <c r="AC17" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="AD17" s="40"/>
-      <c r="AE17" s="40"/>
-      <c r="AF17" s="40"/>
-      <c r="AG17" s="40"/>
+      <c r="AD17" s="37"/>
+      <c r="AE17" s="37"/>
+      <c r="AF17" s="37"/>
+      <c r="AG17" s="37"/>
       <c r="AH17" s="11">
         <v>1</v>
       </c>
@@ -2536,7 +2544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>0</v>
       </c>
@@ -2567,39 +2575,39 @@
       <c r="J18" s="13">
         <v>1</v>
       </c>
-      <c r="K18" s="40" t="s">
+      <c r="K18" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="40"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="40"/>
-      <c r="O18" s="40"/>
-      <c r="P18" s="40" t="s">
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="Q18" s="40"/>
-      <c r="R18" s="40"/>
-      <c r="S18" s="40"/>
-      <c r="T18" s="40"/>
-      <c r="U18" s="40">
+      <c r="Q18" s="37"/>
+      <c r="R18" s="37"/>
+      <c r="S18" s="37"/>
+      <c r="T18" s="37"/>
+      <c r="U18" s="37">
         <v>5</v>
       </c>
-      <c r="V18" s="40"/>
-      <c r="W18" s="40"/>
-      <c r="X18" s="40" t="s">
+      <c r="V18" s="37"/>
+      <c r="W18" s="37"/>
+      <c r="X18" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="Y18" s="40"/>
-      <c r="Z18" s="40"/>
-      <c r="AA18" s="40"/>
-      <c r="AB18" s="40"/>
-      <c r="AC18" s="40" t="s">
+      <c r="Y18" s="37"/>
+      <c r="Z18" s="37"/>
+      <c r="AA18" s="37"/>
+      <c r="AB18" s="37"/>
+      <c r="AC18" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="AD18" s="40"/>
-      <c r="AE18" s="40"/>
-      <c r="AF18" s="40"/>
-      <c r="AG18" s="40"/>
+      <c r="AD18" s="37"/>
+      <c r="AE18" s="37"/>
+      <c r="AF18" s="37"/>
+      <c r="AG18" s="37"/>
       <c r="AH18" s="11">
         <v>1</v>
       </c>
@@ -2607,7 +2615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>0</v>
       </c>
@@ -2638,39 +2646,39 @@
       <c r="J19" s="13">
         <v>1</v>
       </c>
-      <c r="K19" s="40" t="s">
+      <c r="K19" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="L19" s="40"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="40" t="s">
+      <c r="L19" s="37"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="37"/>
+      <c r="P19" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="Q19" s="40"/>
-      <c r="R19" s="40"/>
-      <c r="S19" s="40"/>
-      <c r="T19" s="40"/>
-      <c r="U19" s="40">
+      <c r="Q19" s="37"/>
+      <c r="R19" s="37"/>
+      <c r="S19" s="37"/>
+      <c r="T19" s="37"/>
+      <c r="U19" s="37">
         <v>6</v>
       </c>
-      <c r="V19" s="40"/>
-      <c r="W19" s="40"/>
-      <c r="X19" s="40" t="s">
+      <c r="V19" s="37"/>
+      <c r="W19" s="37"/>
+      <c r="X19" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="Y19" s="40"/>
-      <c r="Z19" s="40"/>
-      <c r="AA19" s="40"/>
-      <c r="AB19" s="40"/>
-      <c r="AC19" s="40" t="s">
+      <c r="Y19" s="37"/>
+      <c r="Z19" s="37"/>
+      <c r="AA19" s="37"/>
+      <c r="AB19" s="37"/>
+      <c r="AC19" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="AD19" s="40"/>
-      <c r="AE19" s="40"/>
-      <c r="AF19" s="40"/>
-      <c r="AG19" s="40"/>
+      <c r="AD19" s="37"/>
+      <c r="AE19" s="37"/>
+      <c r="AF19" s="37"/>
+      <c r="AG19" s="37"/>
       <c r="AH19" s="11">
         <v>1</v>
       </c>
@@ -2678,7 +2686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>0</v>
       </c>
@@ -2709,39 +2717,39 @@
       <c r="J20" s="13">
         <v>1</v>
       </c>
-      <c r="K20" s="40" t="s">
+      <c r="K20" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="40" t="s">
+      <c r="L20" s="37"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="37"/>
+      <c r="O20" s="37"/>
+      <c r="P20" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="Q20" s="40"/>
-      <c r="R20" s="40"/>
-      <c r="S20" s="40"/>
-      <c r="T20" s="40"/>
-      <c r="U20" s="40">
+      <c r="Q20" s="37"/>
+      <c r="R20" s="37"/>
+      <c r="S20" s="37"/>
+      <c r="T20" s="37"/>
+      <c r="U20" s="37">
         <v>7</v>
       </c>
-      <c r="V20" s="40"/>
-      <c r="W20" s="40"/>
-      <c r="X20" s="40" t="s">
+      <c r="V20" s="37"/>
+      <c r="W20" s="37"/>
+      <c r="X20" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="Y20" s="40"/>
-      <c r="Z20" s="40"/>
-      <c r="AA20" s="40"/>
-      <c r="AB20" s="40"/>
-      <c r="AC20" s="40" t="s">
+      <c r="Y20" s="37"/>
+      <c r="Z20" s="37"/>
+      <c r="AA20" s="37"/>
+      <c r="AB20" s="37"/>
+      <c r="AC20" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="AD20" s="40"/>
-      <c r="AE20" s="40"/>
-      <c r="AF20" s="40"/>
-      <c r="AG20" s="40"/>
+      <c r="AD20" s="37"/>
+      <c r="AE20" s="37"/>
+      <c r="AF20" s="37"/>
+      <c r="AG20" s="37"/>
       <c r="AH20" s="11">
         <v>1</v>
       </c>
@@ -2749,7 +2757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -2878,52 +2886,52 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="6"/>
-      <c r="D22" s="41" t="s">
+      <c r="D22" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="41"/>
-      <c r="O22" s="41"/>
-      <c r="P22" s="43" t="s">
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="49"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="49"/>
+      <c r="P22" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="Q22" s="43"/>
-      <c r="R22" s="43"/>
-      <c r="S22" s="43"/>
-      <c r="T22" s="43"/>
-      <c r="U22" s="44" t="s">
+      <c r="Q22" s="54"/>
+      <c r="R22" s="54"/>
+      <c r="S22" s="54"/>
+      <c r="T22" s="54"/>
+      <c r="U22" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="V22" s="44"/>
-      <c r="W22" s="44"/>
-      <c r="X22" s="61" t="s">
+      <c r="V22" s="45"/>
+      <c r="W22" s="45"/>
+      <c r="X22" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="Y22" s="61"/>
-      <c r="Z22" s="61"/>
-      <c r="AA22" s="61"/>
-      <c r="AB22" s="61"/>
-      <c r="AC22" s="44" t="s">
+      <c r="Y22" s="44"/>
+      <c r="Z22" s="44"/>
+      <c r="AA22" s="44"/>
+      <c r="AB22" s="44"/>
+      <c r="AC22" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="AD22" s="44"/>
-      <c r="AE22" s="44"/>
-      <c r="AF22" s="44"/>
-      <c r="AG22" s="44"/>
+      <c r="AD22" s="45"/>
+      <c r="AE22" s="45"/>
+      <c r="AF22" s="45"/>
+      <c r="AG22" s="45"/>
       <c r="AH22" s="16">
         <v>1</v>
       </c>
@@ -2931,7 +2939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
@@ -2941,46 +2949,46 @@
       <c r="C23" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="40" t="s">
+      <c r="D23" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="40" t="s">
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="37"/>
+      <c r="O23" s="37"/>
+      <c r="P23" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="Q23" s="40"/>
-      <c r="R23" s="40"/>
-      <c r="S23" s="40"/>
-      <c r="T23" s="40"/>
-      <c r="U23" s="40">
-        <v>0</v>
-      </c>
-      <c r="V23" s="40"/>
-      <c r="W23" s="40"/>
-      <c r="X23" s="40" t="s">
+      <c r="Q23" s="37"/>
+      <c r="R23" s="37"/>
+      <c r="S23" s="37"/>
+      <c r="T23" s="37"/>
+      <c r="U23" s="37">
+        <v>0</v>
+      </c>
+      <c r="V23" s="37"/>
+      <c r="W23" s="37"/>
+      <c r="X23" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="Y23" s="40"/>
-      <c r="Z23" s="40"/>
-      <c r="AA23" s="40"/>
-      <c r="AB23" s="40"/>
-      <c r="AC23" s="40">
+      <c r="Y23" s="37"/>
+      <c r="Z23" s="37"/>
+      <c r="AA23" s="37"/>
+      <c r="AB23" s="37"/>
+      <c r="AC23" s="37">
         <v>4</v>
       </c>
-      <c r="AD23" s="40"/>
-      <c r="AE23" s="40"/>
-      <c r="AF23" s="40"/>
-      <c r="AG23" s="40"/>
+      <c r="AD23" s="37"/>
+      <c r="AE23" s="37"/>
+      <c r="AF23" s="37"/>
+      <c r="AG23" s="37"/>
       <c r="AH23" s="11">
         <v>1</v>
       </c>
@@ -2988,7 +2996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>20</v>
       </c>
@@ -3019,39 +3027,39 @@
       <c r="J24" s="10">
         <v>0</v>
       </c>
-      <c r="K24" s="62" t="s">
+      <c r="K24" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="L24" s="62"/>
-      <c r="M24" s="62"/>
-      <c r="N24" s="62"/>
-      <c r="O24" s="62"/>
-      <c r="P24" s="40" t="s">
+      <c r="L24" s="53"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="53"/>
+      <c r="O24" s="53"/>
+      <c r="P24" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="Q24" s="40"/>
-      <c r="R24" s="40"/>
-      <c r="S24" s="40"/>
-      <c r="T24" s="40"/>
-      <c r="U24" s="40">
-        <v>1</v>
-      </c>
-      <c r="V24" s="40"/>
-      <c r="W24" s="40"/>
-      <c r="X24" s="40" t="s">
+      <c r="Q24" s="37"/>
+      <c r="R24" s="37"/>
+      <c r="S24" s="37"/>
+      <c r="T24" s="37"/>
+      <c r="U24" s="37">
+        <v>1</v>
+      </c>
+      <c r="V24" s="37"/>
+      <c r="W24" s="37"/>
+      <c r="X24" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="Y24" s="40"/>
-      <c r="Z24" s="40"/>
-      <c r="AA24" s="40"/>
-      <c r="AB24" s="40"/>
-      <c r="AC24" s="40">
+      <c r="Y24" s="37"/>
+      <c r="Z24" s="37"/>
+      <c r="AA24" s="37"/>
+      <c r="AB24" s="37"/>
+      <c r="AC24" s="37">
         <v>4</v>
       </c>
-      <c r="AD24" s="40"/>
-      <c r="AE24" s="40"/>
-      <c r="AF24" s="40"/>
-      <c r="AG24" s="40"/>
+      <c r="AD24" s="37"/>
+      <c r="AE24" s="37"/>
+      <c r="AF24" s="37"/>
+      <c r="AG24" s="37"/>
       <c r="AH24" s="11">
         <v>1</v>
       </c>
@@ -3059,7 +3067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>20</v>
       </c>
@@ -3069,46 +3077,46 @@
       <c r="C25" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="40" t="s">
+      <c r="D25" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="40"/>
-      <c r="M25" s="40"/>
-      <c r="N25" s="40"/>
-      <c r="O25" s="40"/>
-      <c r="P25" s="40" t="s">
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="Q25" s="40"/>
-      <c r="R25" s="40"/>
-      <c r="S25" s="40"/>
-      <c r="T25" s="40"/>
-      <c r="U25" s="40">
+      <c r="Q25" s="37"/>
+      <c r="R25" s="37"/>
+      <c r="S25" s="37"/>
+      <c r="T25" s="37"/>
+      <c r="U25" s="37">
         <v>2</v>
       </c>
-      <c r="V25" s="40"/>
-      <c r="W25" s="40"/>
-      <c r="X25" s="40" t="s">
+      <c r="V25" s="37"/>
+      <c r="W25" s="37"/>
+      <c r="X25" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="Y25" s="40"/>
-      <c r="Z25" s="40"/>
-      <c r="AA25" s="40"/>
-      <c r="AB25" s="40"/>
-      <c r="AC25" s="40">
+      <c r="Y25" s="37"/>
+      <c r="Z25" s="37"/>
+      <c r="AA25" s="37"/>
+      <c r="AB25" s="37"/>
+      <c r="AC25" s="37">
         <v>4</v>
       </c>
-      <c r="AD25" s="40"/>
-      <c r="AE25" s="40"/>
-      <c r="AF25" s="40"/>
-      <c r="AG25" s="40"/>
+      <c r="AD25" s="37"/>
+      <c r="AE25" s="37"/>
+      <c r="AF25" s="37"/>
+      <c r="AG25" s="37"/>
       <c r="AH25" s="11">
         <v>1</v>
       </c>
@@ -3116,7 +3124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>20</v>
       </c>
@@ -3126,46 +3134,46 @@
       <c r="C26" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="40" t="s">
+      <c r="D26" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="40"/>
-      <c r="L26" s="40"/>
-      <c r="M26" s="40"/>
-      <c r="N26" s="40"/>
-      <c r="O26" s="40"/>
-      <c r="P26" s="40" t="s">
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="37"/>
+      <c r="P26" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="Q26" s="40"/>
-      <c r="R26" s="40"/>
-      <c r="S26" s="40"/>
-      <c r="T26" s="40"/>
-      <c r="U26" s="40">
+      <c r="Q26" s="37"/>
+      <c r="R26" s="37"/>
+      <c r="S26" s="37"/>
+      <c r="T26" s="37"/>
+      <c r="U26" s="37">
         <v>3</v>
       </c>
-      <c r="V26" s="40"/>
-      <c r="W26" s="40"/>
-      <c r="X26" s="40" t="s">
+      <c r="V26" s="37"/>
+      <c r="W26" s="37"/>
+      <c r="X26" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="Y26" s="40"/>
-      <c r="Z26" s="40"/>
-      <c r="AA26" s="40"/>
-      <c r="AB26" s="40"/>
-      <c r="AC26" s="40">
+      <c r="Y26" s="37"/>
+      <c r="Z26" s="37"/>
+      <c r="AA26" s="37"/>
+      <c r="AB26" s="37"/>
+      <c r="AC26" s="37">
         <v>4</v>
       </c>
-      <c r="AD26" s="40"/>
-      <c r="AE26" s="40"/>
-      <c r="AF26" s="40"/>
-      <c r="AG26" s="40"/>
+      <c r="AD26" s="37"/>
+      <c r="AE26" s="37"/>
+      <c r="AF26" s="37"/>
+      <c r="AG26" s="37"/>
       <c r="AH26" s="11">
         <v>1</v>
       </c>
@@ -3173,7 +3181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>20</v>
       </c>
@@ -3183,46 +3191,46 @@
       <c r="C27" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="40" t="s">
+      <c r="D27" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="40"/>
-      <c r="M27" s="40"/>
-      <c r="N27" s="40"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="40" t="s">
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="37"/>
+      <c r="N27" s="37"/>
+      <c r="O27" s="37"/>
+      <c r="P27" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="40"/>
-      <c r="S27" s="40"/>
-      <c r="T27" s="40"/>
-      <c r="U27" s="40">
+      <c r="Q27" s="37"/>
+      <c r="R27" s="37"/>
+      <c r="S27" s="37"/>
+      <c r="T27" s="37"/>
+      <c r="U27" s="37">
         <v>4</v>
       </c>
-      <c r="V27" s="40"/>
-      <c r="W27" s="40"/>
-      <c r="X27" s="40" t="s">
+      <c r="V27" s="37"/>
+      <c r="W27" s="37"/>
+      <c r="X27" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="Y27" s="40"/>
-      <c r="Z27" s="40"/>
-      <c r="AA27" s="40"/>
-      <c r="AB27" s="40"/>
-      <c r="AC27" s="40">
+      <c r="Y27" s="37"/>
+      <c r="Z27" s="37"/>
+      <c r="AA27" s="37"/>
+      <c r="AB27" s="37"/>
+      <c r="AC27" s="37">
         <v>4</v>
       </c>
-      <c r="AD27" s="40"/>
-      <c r="AE27" s="40"/>
-      <c r="AF27" s="40"/>
-      <c r="AG27" s="40"/>
+      <c r="AD27" s="37"/>
+      <c r="AE27" s="37"/>
+      <c r="AF27" s="37"/>
+      <c r="AG27" s="37"/>
       <c r="AH27" s="11">
         <v>1</v>
       </c>
@@ -3230,7 +3238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>20</v>
       </c>
@@ -3261,39 +3269,39 @@
       <c r="J28" s="10">
         <v>0</v>
       </c>
-      <c r="K28" s="62" t="s">
+      <c r="K28" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="L28" s="62"/>
-      <c r="M28" s="62"/>
-      <c r="N28" s="62"/>
-      <c r="O28" s="62"/>
-      <c r="P28" s="40" t="s">
+      <c r="L28" s="53"/>
+      <c r="M28" s="53"/>
+      <c r="N28" s="53"/>
+      <c r="O28" s="53"/>
+      <c r="P28" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="Q28" s="40"/>
-      <c r="R28" s="40"/>
-      <c r="S28" s="40"/>
-      <c r="T28" s="40"/>
-      <c r="U28" s="40">
+      <c r="Q28" s="37"/>
+      <c r="R28" s="37"/>
+      <c r="S28" s="37"/>
+      <c r="T28" s="37"/>
+      <c r="U28" s="37">
         <v>5</v>
       </c>
-      <c r="V28" s="40"/>
-      <c r="W28" s="40"/>
-      <c r="X28" s="40" t="s">
+      <c r="V28" s="37"/>
+      <c r="W28" s="37"/>
+      <c r="X28" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="Y28" s="40"/>
-      <c r="Z28" s="40"/>
-      <c r="AA28" s="40"/>
-      <c r="AB28" s="40"/>
-      <c r="AC28" s="40">
+      <c r="Y28" s="37"/>
+      <c r="Z28" s="37"/>
+      <c r="AA28" s="37"/>
+      <c r="AB28" s="37"/>
+      <c r="AC28" s="37">
         <v>4</v>
       </c>
-      <c r="AD28" s="40"/>
-      <c r="AE28" s="40"/>
-      <c r="AF28" s="40"/>
-      <c r="AG28" s="40"/>
+      <c r="AD28" s="37"/>
+      <c r="AE28" s="37"/>
+      <c r="AF28" s="37"/>
+      <c r="AG28" s="37"/>
       <c r="AH28" s="11">
         <v>1</v>
       </c>
@@ -3301,7 +3309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>20</v>
       </c>
@@ -3332,39 +3340,39 @@
       <c r="J29" s="10">
         <v>0</v>
       </c>
-      <c r="K29" s="62" t="s">
+      <c r="K29" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="L29" s="62"/>
-      <c r="M29" s="62"/>
-      <c r="N29" s="62"/>
-      <c r="O29" s="62"/>
-      <c r="P29" s="40" t="s">
+      <c r="L29" s="53"/>
+      <c r="M29" s="53"/>
+      <c r="N29" s="53"/>
+      <c r="O29" s="53"/>
+      <c r="P29" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="Q29" s="40"/>
-      <c r="R29" s="40"/>
-      <c r="S29" s="40"/>
-      <c r="T29" s="40"/>
-      <c r="U29" s="40">
+      <c r="Q29" s="37"/>
+      <c r="R29" s="37"/>
+      <c r="S29" s="37"/>
+      <c r="T29" s="37"/>
+      <c r="U29" s="37">
         <v>5</v>
       </c>
-      <c r="V29" s="40"/>
-      <c r="W29" s="40"/>
-      <c r="X29" s="40" t="s">
+      <c r="V29" s="37"/>
+      <c r="W29" s="37"/>
+      <c r="X29" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="Y29" s="40"/>
-      <c r="Z29" s="40"/>
-      <c r="AA29" s="40"/>
-      <c r="AB29" s="40"/>
-      <c r="AC29" s="40">
+      <c r="Y29" s="37"/>
+      <c r="Z29" s="37"/>
+      <c r="AA29" s="37"/>
+      <c r="AB29" s="37"/>
+      <c r="AC29" s="37">
         <v>4</v>
       </c>
-      <c r="AD29" s="40"/>
-      <c r="AE29" s="40"/>
-      <c r="AF29" s="40"/>
-      <c r="AG29" s="40"/>
+      <c r="AD29" s="37"/>
+      <c r="AE29" s="37"/>
+      <c r="AF29" s="37"/>
+      <c r="AG29" s="37"/>
       <c r="AH29" s="11">
         <v>1</v>
       </c>
@@ -3372,7 +3380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>20</v>
       </c>
@@ -3382,46 +3390,46 @@
       <c r="C30" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="40" t="s">
+      <c r="D30" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="40"/>
-      <c r="L30" s="40"/>
-      <c r="M30" s="40"/>
-      <c r="N30" s="40"/>
-      <c r="O30" s="40"/>
-      <c r="P30" s="40" t="s">
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="37"/>
+      <c r="N30" s="37"/>
+      <c r="O30" s="37"/>
+      <c r="P30" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="Q30" s="40"/>
-      <c r="R30" s="40"/>
-      <c r="S30" s="40"/>
-      <c r="T30" s="40"/>
-      <c r="U30" s="40">
+      <c r="Q30" s="37"/>
+      <c r="R30" s="37"/>
+      <c r="S30" s="37"/>
+      <c r="T30" s="37"/>
+      <c r="U30" s="37">
         <v>6</v>
       </c>
-      <c r="V30" s="40"/>
-      <c r="W30" s="40"/>
-      <c r="X30" s="40" t="s">
+      <c r="V30" s="37"/>
+      <c r="W30" s="37"/>
+      <c r="X30" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="Y30" s="40"/>
-      <c r="Z30" s="40"/>
-      <c r="AA30" s="40"/>
-      <c r="AB30" s="40"/>
-      <c r="AC30" s="40">
+      <c r="Y30" s="37"/>
+      <c r="Z30" s="37"/>
+      <c r="AA30" s="37"/>
+      <c r="AB30" s="37"/>
+      <c r="AC30" s="37">
         <v>4</v>
       </c>
-      <c r="AD30" s="40"/>
-      <c r="AE30" s="40"/>
-      <c r="AF30" s="40"/>
-      <c r="AG30" s="40"/>
+      <c r="AD30" s="37"/>
+      <c r="AE30" s="37"/>
+      <c r="AF30" s="37"/>
+      <c r="AG30" s="37"/>
       <c r="AH30" s="11">
         <v>1</v>
       </c>
@@ -3429,7 +3437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>20</v>
       </c>
@@ -3439,46 +3447,46 @@
       <c r="C31" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="38" t="s">
+      <c r="D31" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="38"/>
-      <c r="K31" s="38"/>
-      <c r="L31" s="38"/>
-      <c r="M31" s="38"/>
-      <c r="N31" s="38"/>
-      <c r="O31" s="38"/>
-      <c r="P31" s="38" t="s">
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="35"/>
+      <c r="N31" s="35"/>
+      <c r="O31" s="35"/>
+      <c r="P31" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="Q31" s="38"/>
-      <c r="R31" s="38"/>
-      <c r="S31" s="38"/>
-      <c r="T31" s="38"/>
-      <c r="U31" s="38">
+      <c r="Q31" s="35"/>
+      <c r="R31" s="35"/>
+      <c r="S31" s="35"/>
+      <c r="T31" s="35"/>
+      <c r="U31" s="35">
         <v>7</v>
       </c>
-      <c r="V31" s="38"/>
-      <c r="W31" s="38"/>
-      <c r="X31" s="38" t="s">
+      <c r="V31" s="35"/>
+      <c r="W31" s="35"/>
+      <c r="X31" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="Y31" s="38"/>
-      <c r="Z31" s="38"/>
-      <c r="AA31" s="38"/>
-      <c r="AB31" s="38"/>
-      <c r="AC31" s="38">
+      <c r="Y31" s="35"/>
+      <c r="Z31" s="35"/>
+      <c r="AA31" s="35"/>
+      <c r="AB31" s="35"/>
+      <c r="AC31" s="35">
         <v>4</v>
       </c>
-      <c r="AD31" s="38"/>
-      <c r="AE31" s="38"/>
-      <c r="AF31" s="38"/>
-      <c r="AG31" s="38"/>
+      <c r="AD31" s="35"/>
+      <c r="AE31" s="35"/>
+      <c r="AF31" s="35"/>
+      <c r="AG31" s="35"/>
       <c r="AH31" s="15">
         <v>1</v>
       </c>
@@ -3486,7 +3494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A32" s="18" t="s">
         <v>20</v>
       </c>
@@ -3496,46 +3504,46 @@
       <c r="C32" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="39" t="s">
+      <c r="D32" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="39"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="39"/>
-      <c r="M32" s="39"/>
-      <c r="N32" s="39"/>
-      <c r="O32" s="39"/>
-      <c r="P32" s="39" t="s">
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="36"/>
+      <c r="N32" s="36"/>
+      <c r="O32" s="36"/>
+      <c r="P32" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="Q32" s="39"/>
-      <c r="R32" s="39"/>
-      <c r="S32" s="39"/>
-      <c r="T32" s="39"/>
-      <c r="U32" s="39">
-        <v>0</v>
-      </c>
-      <c r="V32" s="39"/>
-      <c r="W32" s="39"/>
-      <c r="X32" s="39" t="s">
+      <c r="Q32" s="36"/>
+      <c r="R32" s="36"/>
+      <c r="S32" s="36"/>
+      <c r="T32" s="36"/>
+      <c r="U32" s="36">
+        <v>0</v>
+      </c>
+      <c r="V32" s="36"/>
+      <c r="W32" s="36"/>
+      <c r="X32" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="Y32" s="39"/>
-      <c r="Z32" s="39"/>
-      <c r="AA32" s="39"/>
-      <c r="AB32" s="39"/>
-      <c r="AC32" s="39">
-        <v>0</v>
-      </c>
-      <c r="AD32" s="39"/>
-      <c r="AE32" s="39"/>
-      <c r="AF32" s="39"/>
-      <c r="AG32" s="39"/>
+      <c r="Y32" s="36"/>
+      <c r="Z32" s="36"/>
+      <c r="AA32" s="36"/>
+      <c r="AB32" s="36"/>
+      <c r="AC32" s="36">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="36"/>
+      <c r="AE32" s="36"/>
+      <c r="AF32" s="36"/>
+      <c r="AG32" s="36"/>
       <c r="AH32" s="20">
         <v>1</v>
       </c>
@@ -3543,7 +3551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A33" s="18" t="s">
         <v>20</v>
       </c>
@@ -3553,46 +3561,46 @@
       <c r="C33" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="D33" s="39" t="s">
+      <c r="D33" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="39"/>
-      <c r="K33" s="39"/>
-      <c r="L33" s="39"/>
-      <c r="M33" s="39"/>
-      <c r="N33" s="39"/>
-      <c r="O33" s="39"/>
-      <c r="P33" s="39" t="s">
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="36"/>
+      <c r="O33" s="36"/>
+      <c r="P33" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="Q33" s="39"/>
-      <c r="R33" s="39"/>
-      <c r="S33" s="39"/>
-      <c r="T33" s="39"/>
-      <c r="U33" s="39">
-        <v>1</v>
-      </c>
-      <c r="V33" s="39"/>
-      <c r="W33" s="39"/>
-      <c r="X33" s="39" t="s">
+      <c r="Q33" s="36"/>
+      <c r="R33" s="36"/>
+      <c r="S33" s="36"/>
+      <c r="T33" s="36"/>
+      <c r="U33" s="36">
+        <v>1</v>
+      </c>
+      <c r="V33" s="36"/>
+      <c r="W33" s="36"/>
+      <c r="X33" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="Y33" s="39"/>
-      <c r="Z33" s="39"/>
-      <c r="AA33" s="39"/>
-      <c r="AB33" s="39"/>
-      <c r="AC33" s="39">
-        <v>0</v>
-      </c>
-      <c r="AD33" s="39"/>
-      <c r="AE33" s="39"/>
-      <c r="AF33" s="39"/>
-      <c r="AG33" s="39"/>
+      <c r="Y33" s="36"/>
+      <c r="Z33" s="36"/>
+      <c r="AA33" s="36"/>
+      <c r="AB33" s="36"/>
+      <c r="AC33" s="36">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="36"/>
+      <c r="AE33" s="36"/>
+      <c r="AF33" s="36"/>
+      <c r="AG33" s="36"/>
       <c r="AH33" s="20">
         <v>1</v>
       </c>
@@ -3600,7 +3608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A34" s="18" t="s">
         <v>20</v>
       </c>
@@ -3610,46 +3618,46 @@
       <c r="C34" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="D34" s="39" t="s">
+      <c r="D34" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="39"/>
-      <c r="J34" s="39"/>
-      <c r="K34" s="39"/>
-      <c r="L34" s="39"/>
-      <c r="M34" s="39"/>
-      <c r="N34" s="39"/>
-      <c r="O34" s="39"/>
-      <c r="P34" s="39" t="s">
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="36"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="36"/>
+      <c r="P34" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="Q34" s="39"/>
-      <c r="R34" s="39"/>
-      <c r="S34" s="39"/>
-      <c r="T34" s="39"/>
-      <c r="U34" s="39">
+      <c r="Q34" s="36"/>
+      <c r="R34" s="36"/>
+      <c r="S34" s="36"/>
+      <c r="T34" s="36"/>
+      <c r="U34" s="36">
         <v>2</v>
       </c>
-      <c r="V34" s="39"/>
-      <c r="W34" s="39"/>
-      <c r="X34" s="39" t="s">
+      <c r="V34" s="36"/>
+      <c r="W34" s="36"/>
+      <c r="X34" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="Y34" s="39"/>
-      <c r="Z34" s="39"/>
-      <c r="AA34" s="39"/>
-      <c r="AB34" s="39"/>
-      <c r="AC34" s="39">
-        <v>0</v>
-      </c>
-      <c r="AD34" s="39"/>
-      <c r="AE34" s="39"/>
-      <c r="AF34" s="39"/>
-      <c r="AG34" s="39"/>
+      <c r="Y34" s="36"/>
+      <c r="Z34" s="36"/>
+      <c r="AA34" s="36"/>
+      <c r="AB34" s="36"/>
+      <c r="AC34" s="36">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="36"/>
+      <c r="AE34" s="36"/>
+      <c r="AF34" s="36"/>
+      <c r="AG34" s="36"/>
       <c r="AH34" s="20">
         <v>1</v>
       </c>
@@ -3657,7 +3665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A35" s="18" t="s">
         <v>20</v>
       </c>
@@ -3665,46 +3673,46 @@
       <c r="C35" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="D35" s="66" t="s">
+      <c r="D35" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="E35" s="67"/>
-      <c r="F35" s="67"/>
-      <c r="G35" s="67"/>
-      <c r="H35" s="67"/>
-      <c r="I35" s="67"/>
-      <c r="J35" s="67"/>
-      <c r="K35" s="67"/>
-      <c r="L35" s="67"/>
-      <c r="M35" s="67"/>
-      <c r="N35" s="67"/>
-      <c r="O35" s="68"/>
-      <c r="P35" s="66" t="s">
+      <c r="E35" s="47"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="47"/>
+      <c r="I35" s="47"/>
+      <c r="J35" s="47"/>
+      <c r="K35" s="47"/>
+      <c r="L35" s="47"/>
+      <c r="M35" s="47"/>
+      <c r="N35" s="47"/>
+      <c r="O35" s="48"/>
+      <c r="P35" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="Q35" s="67"/>
-      <c r="R35" s="67"/>
-      <c r="S35" s="67"/>
-      <c r="T35" s="68"/>
-      <c r="U35" s="66">
+      <c r="Q35" s="47"/>
+      <c r="R35" s="47"/>
+      <c r="S35" s="47"/>
+      <c r="T35" s="48"/>
+      <c r="U35" s="46">
         <v>3</v>
       </c>
-      <c r="V35" s="67"/>
-      <c r="W35" s="68"/>
-      <c r="X35" s="66" t="s">
+      <c r="V35" s="47"/>
+      <c r="W35" s="48"/>
+      <c r="X35" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="Y35" s="67"/>
-      <c r="Z35" s="67"/>
-      <c r="AA35" s="67"/>
-      <c r="AB35" s="68"/>
-      <c r="AC35" s="66">
-        <v>0</v>
-      </c>
-      <c r="AD35" s="67"/>
-      <c r="AE35" s="67"/>
-      <c r="AF35" s="67"/>
-      <c r="AG35" s="68"/>
+      <c r="Y35" s="47"/>
+      <c r="Z35" s="47"/>
+      <c r="AA35" s="47"/>
+      <c r="AB35" s="48"/>
+      <c r="AC35" s="46">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="47"/>
+      <c r="AE35" s="47"/>
+      <c r="AF35" s="47"/>
+      <c r="AG35" s="48"/>
       <c r="AH35" s="20">
         <v>1</v>
       </c>
@@ -3712,7 +3720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A36" s="18" t="s">
         <v>20</v>
       </c>
@@ -3722,46 +3730,46 @@
       <c r="C36" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="D36" s="39" t="s">
+      <c r="D36" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="E36" s="39"/>
-      <c r="F36" s="39"/>
-      <c r="G36" s="39"/>
-      <c r="H36" s="39"/>
-      <c r="I36" s="39"/>
-      <c r="J36" s="39"/>
-      <c r="K36" s="39"/>
-      <c r="L36" s="39"/>
-      <c r="M36" s="39"/>
-      <c r="N36" s="39"/>
-      <c r="O36" s="39"/>
-      <c r="P36" s="39" t="s">
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="36"/>
+      <c r="O36" s="36"/>
+      <c r="P36" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="Q36" s="39"/>
-      <c r="R36" s="39"/>
-      <c r="S36" s="39"/>
-      <c r="T36" s="39"/>
-      <c r="U36" s="39">
+      <c r="Q36" s="36"/>
+      <c r="R36" s="36"/>
+      <c r="S36" s="36"/>
+      <c r="T36" s="36"/>
+      <c r="U36" s="36">
         <v>4</v>
       </c>
-      <c r="V36" s="39"/>
-      <c r="W36" s="39"/>
-      <c r="X36" s="39" t="s">
+      <c r="V36" s="36"/>
+      <c r="W36" s="36"/>
+      <c r="X36" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="Y36" s="39"/>
-      <c r="Z36" s="39"/>
-      <c r="AA36" s="39"/>
-      <c r="AB36" s="39"/>
-      <c r="AC36" s="39">
-        <v>0</v>
-      </c>
-      <c r="AD36" s="39"/>
-      <c r="AE36" s="39"/>
-      <c r="AF36" s="39"/>
-      <c r="AG36" s="39"/>
+      <c r="Y36" s="36"/>
+      <c r="Z36" s="36"/>
+      <c r="AA36" s="36"/>
+      <c r="AB36" s="36"/>
+      <c r="AC36" s="36">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="36"/>
+      <c r="AE36" s="36"/>
+      <c r="AF36" s="36"/>
+      <c r="AG36" s="36"/>
       <c r="AH36" s="20">
         <v>1</v>
       </c>
@@ -3769,7 +3777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A37" s="18" t="s">
         <v>20</v>
       </c>
@@ -3779,46 +3787,46 @@
       <c r="C37" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="D37" s="39" t="s">
+      <c r="D37" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="39"/>
-      <c r="J37" s="39"/>
-      <c r="K37" s="39"/>
-      <c r="L37" s="39"/>
-      <c r="M37" s="39"/>
-      <c r="N37" s="39"/>
-      <c r="O37" s="39"/>
-      <c r="P37" s="39" t="s">
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="36"/>
+      <c r="L37" s="36"/>
+      <c r="M37" s="36"/>
+      <c r="N37" s="36"/>
+      <c r="O37" s="36"/>
+      <c r="P37" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="Q37" s="39"/>
-      <c r="R37" s="39"/>
-      <c r="S37" s="39"/>
-      <c r="T37" s="39"/>
-      <c r="U37" s="39">
+      <c r="Q37" s="36"/>
+      <c r="R37" s="36"/>
+      <c r="S37" s="36"/>
+      <c r="T37" s="36"/>
+      <c r="U37" s="36">
         <v>5</v>
       </c>
-      <c r="V37" s="39"/>
-      <c r="W37" s="39"/>
-      <c r="X37" s="39" t="s">
+      <c r="V37" s="36"/>
+      <c r="W37" s="36"/>
+      <c r="X37" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="Y37" s="39"/>
-      <c r="Z37" s="39"/>
-      <c r="AA37" s="39"/>
-      <c r="AB37" s="39"/>
-      <c r="AC37" s="39">
-        <v>0</v>
-      </c>
-      <c r="AD37" s="39"/>
-      <c r="AE37" s="39"/>
-      <c r="AF37" s="39"/>
-      <c r="AG37" s="39"/>
+      <c r="Y37" s="36"/>
+      <c r="Z37" s="36"/>
+      <c r="AA37" s="36"/>
+      <c r="AB37" s="36"/>
+      <c r="AC37" s="36">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="36"/>
+      <c r="AE37" s="36"/>
+      <c r="AF37" s="36"/>
+      <c r="AG37" s="36"/>
       <c r="AH37" s="20">
         <v>1</v>
       </c>
@@ -3826,7 +3834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A38" s="18" t="s">
         <v>20</v>
       </c>
@@ -3834,46 +3842,46 @@
       <c r="C38" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="D38" s="39" t="s">
+      <c r="D38" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="E38" s="39"/>
-      <c r="F38" s="39"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="39"/>
-      <c r="I38" s="39"/>
-      <c r="J38" s="39"/>
-      <c r="K38" s="39"/>
-      <c r="L38" s="39"/>
-      <c r="M38" s="39"/>
-      <c r="N38" s="39"/>
-      <c r="O38" s="39"/>
-      <c r="P38" s="39" t="s">
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="36"/>
+      <c r="L38" s="36"/>
+      <c r="M38" s="36"/>
+      <c r="N38" s="36"/>
+      <c r="O38" s="36"/>
+      <c r="P38" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="Q38" s="39"/>
-      <c r="R38" s="39"/>
-      <c r="S38" s="39"/>
-      <c r="T38" s="39"/>
-      <c r="U38" s="39">
+      <c r="Q38" s="36"/>
+      <c r="R38" s="36"/>
+      <c r="S38" s="36"/>
+      <c r="T38" s="36"/>
+      <c r="U38" s="36">
         <v>6</v>
       </c>
-      <c r="V38" s="39"/>
-      <c r="W38" s="39"/>
-      <c r="X38" s="39" t="s">
+      <c r="V38" s="36"/>
+      <c r="W38" s="36"/>
+      <c r="X38" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="Y38" s="39"/>
-      <c r="Z38" s="39"/>
-      <c r="AA38" s="39"/>
-      <c r="AB38" s="39"/>
-      <c r="AC38" s="39">
-        <v>0</v>
-      </c>
-      <c r="AD38" s="39"/>
-      <c r="AE38" s="39"/>
-      <c r="AF38" s="39"/>
-      <c r="AG38" s="39"/>
+      <c r="Y38" s="36"/>
+      <c r="Z38" s="36"/>
+      <c r="AA38" s="36"/>
+      <c r="AB38" s="36"/>
+      <c r="AC38" s="36">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="36"/>
+      <c r="AE38" s="36"/>
+      <c r="AF38" s="36"/>
+      <c r="AG38" s="36"/>
       <c r="AH38" s="20">
         <v>1</v>
       </c>
@@ -3881,7 +3889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>20</v>
       </c>
@@ -3891,46 +3899,46 @@
       <c r="C39" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D39" s="38" t="s">
+      <c r="D39" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="38"/>
-      <c r="J39" s="38"/>
-      <c r="K39" s="38"/>
-      <c r="L39" s="38"/>
-      <c r="M39" s="38"/>
-      <c r="N39" s="38"/>
-      <c r="O39" s="38"/>
-      <c r="P39" s="38" t="s">
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="35"/>
+      <c r="J39" s="35"/>
+      <c r="K39" s="35"/>
+      <c r="L39" s="35"/>
+      <c r="M39" s="35"/>
+      <c r="N39" s="35"/>
+      <c r="O39" s="35"/>
+      <c r="P39" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="Q39" s="38"/>
-      <c r="R39" s="38"/>
-      <c r="S39" s="38"/>
-      <c r="T39" s="38"/>
-      <c r="U39" s="38">
-        <v>0</v>
-      </c>
-      <c r="V39" s="38"/>
-      <c r="W39" s="38"/>
-      <c r="X39" s="38" t="s">
+      <c r="Q39" s="35"/>
+      <c r="R39" s="35"/>
+      <c r="S39" s="35"/>
+      <c r="T39" s="35"/>
+      <c r="U39" s="35">
+        <v>0</v>
+      </c>
+      <c r="V39" s="35"/>
+      <c r="W39" s="35"/>
+      <c r="X39" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="Y39" s="38"/>
-      <c r="Z39" s="38"/>
-      <c r="AA39" s="38"/>
-      <c r="AB39" s="38"/>
-      <c r="AC39" s="39" t="s">
+      <c r="Y39" s="35"/>
+      <c r="Z39" s="35"/>
+      <c r="AA39" s="35"/>
+      <c r="AB39" s="35"/>
+      <c r="AC39" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="AD39" s="39"/>
-      <c r="AE39" s="39"/>
-      <c r="AF39" s="39"/>
-      <c r="AG39" s="39"/>
+      <c r="AD39" s="36"/>
+      <c r="AE39" s="36"/>
+      <c r="AF39" s="36"/>
+      <c r="AG39" s="36"/>
       <c r="AH39" s="15">
         <v>1</v>
       </c>
@@ -3938,7 +3946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>20</v>
       </c>
@@ -3948,46 +3956,46 @@
       <c r="C40" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D40" s="38" t="s">
+      <c r="D40" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="38"/>
-      <c r="J40" s="38"/>
-      <c r="K40" s="38"/>
-      <c r="L40" s="38"/>
-      <c r="M40" s="38"/>
-      <c r="N40" s="38"/>
-      <c r="O40" s="38"/>
-      <c r="P40" s="38" t="s">
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="35"/>
+      <c r="K40" s="35"/>
+      <c r="L40" s="35"/>
+      <c r="M40" s="35"/>
+      <c r="N40" s="35"/>
+      <c r="O40" s="35"/>
+      <c r="P40" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="Q40" s="38"/>
-      <c r="R40" s="38"/>
-      <c r="S40" s="38"/>
-      <c r="T40" s="38"/>
-      <c r="U40" s="38">
-        <v>0</v>
-      </c>
-      <c r="V40" s="38"/>
-      <c r="W40" s="38"/>
-      <c r="X40" s="38" t="s">
+      <c r="Q40" s="35"/>
+      <c r="R40" s="35"/>
+      <c r="S40" s="35"/>
+      <c r="T40" s="35"/>
+      <c r="U40" s="35">
+        <v>0</v>
+      </c>
+      <c r="V40" s="35"/>
+      <c r="W40" s="35"/>
+      <c r="X40" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="Y40" s="38"/>
-      <c r="Z40" s="38"/>
-      <c r="AA40" s="38"/>
-      <c r="AB40" s="38"/>
-      <c r="AC40" s="39" t="s">
+      <c r="Y40" s="35"/>
+      <c r="Z40" s="35"/>
+      <c r="AA40" s="35"/>
+      <c r="AB40" s="35"/>
+      <c r="AC40" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="AD40" s="39"/>
-      <c r="AE40" s="39"/>
-      <c r="AF40" s="39"/>
-      <c r="AG40" s="39"/>
+      <c r="AD40" s="36"/>
+      <c r="AE40" s="36"/>
+      <c r="AF40" s="36"/>
+      <c r="AG40" s="36"/>
       <c r="AH40" s="15">
         <v>1</v>
       </c>
@@ -3995,7 +4003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>20</v>
       </c>
@@ -4005,46 +4013,46 @@
       <c r="C41" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D41" s="38" t="s">
+      <c r="D41" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="E41" s="38"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="38"/>
-      <c r="J41" s="38"/>
-      <c r="K41" s="38"/>
-      <c r="L41" s="38"/>
-      <c r="M41" s="38"/>
-      <c r="N41" s="38"/>
-      <c r="O41" s="38"/>
-      <c r="P41" s="38" t="s">
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="35"/>
+      <c r="I41" s="35"/>
+      <c r="J41" s="35"/>
+      <c r="K41" s="35"/>
+      <c r="L41" s="35"/>
+      <c r="M41" s="35"/>
+      <c r="N41" s="35"/>
+      <c r="O41" s="35"/>
+      <c r="P41" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="Q41" s="38"/>
-      <c r="R41" s="38"/>
-      <c r="S41" s="38"/>
-      <c r="T41" s="38"/>
-      <c r="U41" s="38">
-        <v>1</v>
-      </c>
-      <c r="V41" s="38"/>
-      <c r="W41" s="38"/>
-      <c r="X41" s="38" t="s">
+      <c r="Q41" s="35"/>
+      <c r="R41" s="35"/>
+      <c r="S41" s="35"/>
+      <c r="T41" s="35"/>
+      <c r="U41" s="35">
+        <v>1</v>
+      </c>
+      <c r="V41" s="35"/>
+      <c r="W41" s="35"/>
+      <c r="X41" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="Y41" s="38"/>
-      <c r="Z41" s="38"/>
-      <c r="AA41" s="38"/>
-      <c r="AB41" s="38"/>
-      <c r="AC41" s="39" t="s">
+      <c r="Y41" s="35"/>
+      <c r="Z41" s="35"/>
+      <c r="AA41" s="35"/>
+      <c r="AB41" s="35"/>
+      <c r="AC41" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="AD41" s="39"/>
-      <c r="AE41" s="39"/>
-      <c r="AF41" s="39"/>
-      <c r="AG41" s="39"/>
+      <c r="AD41" s="36"/>
+      <c r="AE41" s="36"/>
+      <c r="AF41" s="36"/>
+      <c r="AG41" s="36"/>
       <c r="AH41" s="15">
         <v>1</v>
       </c>
@@ -4052,7 +4060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>20</v>
       </c>
@@ -4098,32 +4106,32 @@
       <c r="O42" s="14">
         <v>0</v>
       </c>
-      <c r="P42" s="38">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="38"/>
-      <c r="R42" s="38"/>
-      <c r="S42" s="38"/>
-      <c r="T42" s="38"/>
-      <c r="U42" s="38">
-        <v>0</v>
-      </c>
-      <c r="V42" s="38"/>
-      <c r="W42" s="38"/>
-      <c r="X42" s="38">
-        <v>0</v>
-      </c>
-      <c r="Y42" s="38"/>
-      <c r="Z42" s="38"/>
-      <c r="AA42" s="38"/>
-      <c r="AB42" s="38"/>
-      <c r="AC42" s="39" t="s">
+      <c r="P42" s="35">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="35"/>
+      <c r="R42" s="35"/>
+      <c r="S42" s="35"/>
+      <c r="T42" s="35"/>
+      <c r="U42" s="35">
+        <v>0</v>
+      </c>
+      <c r="V42" s="35"/>
+      <c r="W42" s="35"/>
+      <c r="X42" s="35">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="35"/>
+      <c r="Z42" s="35"/>
+      <c r="AA42" s="35"/>
+      <c r="AB42" s="35"/>
+      <c r="AC42" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="AD42" s="39"/>
-      <c r="AE42" s="39"/>
-      <c r="AF42" s="39"/>
-      <c r="AG42" s="39"/>
+      <c r="AD42" s="36"/>
+      <c r="AE42" s="36"/>
+      <c r="AF42" s="36"/>
+      <c r="AG42" s="36"/>
       <c r="AH42" s="17">
         <v>1</v>
       </c>
@@ -4131,7 +4139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>20</v>
       </c>
@@ -4177,32 +4185,32 @@
       <c r="O43" s="13">
         <v>1</v>
       </c>
-      <c r="P43" s="38">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="38"/>
-      <c r="R43" s="38"/>
-      <c r="S43" s="38"/>
-      <c r="T43" s="38"/>
-      <c r="U43" s="38">
-        <v>0</v>
-      </c>
-      <c r="V43" s="38"/>
-      <c r="W43" s="38"/>
-      <c r="X43" s="38">
-        <v>0</v>
-      </c>
-      <c r="Y43" s="38"/>
-      <c r="Z43" s="38"/>
-      <c r="AA43" s="38"/>
-      <c r="AB43" s="38"/>
-      <c r="AC43" s="39" t="s">
+      <c r="P43" s="35">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="35"/>
+      <c r="R43" s="35"/>
+      <c r="S43" s="35"/>
+      <c r="T43" s="35"/>
+      <c r="U43" s="35">
+        <v>0</v>
+      </c>
+      <c r="V43" s="35"/>
+      <c r="W43" s="35"/>
+      <c r="X43" s="35">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="35"/>
+      <c r="Z43" s="35"/>
+      <c r="AA43" s="35"/>
+      <c r="AB43" s="35"/>
+      <c r="AC43" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="AD43" s="39"/>
-      <c r="AE43" s="39"/>
-      <c r="AF43" s="39"/>
-      <c r="AG43" s="39"/>
+      <c r="AD43" s="36"/>
+      <c r="AE43" s="36"/>
+      <c r="AF43" s="36"/>
+      <c r="AG43" s="36"/>
       <c r="AH43" s="17">
         <v>1</v>
       </c>
@@ -4210,7 +4218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A44" s="2"/>
       <c r="B44" s="9"/>
       <c r="C44" s="9" t="s">
@@ -4252,32 +4260,32 @@
       <c r="O44" s="14">
         <v>0</v>
       </c>
-      <c r="P44" s="38">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="38"/>
-      <c r="R44" s="38"/>
-      <c r="S44" s="38"/>
-      <c r="T44" s="38"/>
-      <c r="U44" s="38">
-        <v>0</v>
-      </c>
-      <c r="V44" s="38"/>
-      <c r="W44" s="38"/>
-      <c r="X44" s="38">
-        <v>0</v>
-      </c>
-      <c r="Y44" s="38"/>
-      <c r="Z44" s="38"/>
-      <c r="AA44" s="38"/>
-      <c r="AB44" s="38"/>
-      <c r="AC44" s="39" t="s">
+      <c r="P44" s="35">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="35"/>
+      <c r="R44" s="35"/>
+      <c r="S44" s="35"/>
+      <c r="T44" s="35"/>
+      <c r="U44" s="35">
+        <v>0</v>
+      </c>
+      <c r="V44" s="35"/>
+      <c r="W44" s="35"/>
+      <c r="X44" s="35">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="35"/>
+      <c r="Z44" s="35"/>
+      <c r="AA44" s="35"/>
+      <c r="AB44" s="35"/>
+      <c r="AC44" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="AD44" s="39"/>
-      <c r="AE44" s="39"/>
-      <c r="AF44" s="39"/>
-      <c r="AG44" s="39"/>
+      <c r="AD44" s="36"/>
+      <c r="AE44" s="36"/>
+      <c r="AF44" s="36"/>
+      <c r="AG44" s="36"/>
       <c r="AH44" s="17">
         <v>1</v>
       </c>
@@ -4285,7 +4293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A45" s="2"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9" t="s">
@@ -4327,32 +4335,32 @@
       <c r="O45" s="14">
         <v>0</v>
       </c>
-      <c r="P45" s="38">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="38"/>
-      <c r="R45" s="38"/>
-      <c r="S45" s="38"/>
-      <c r="T45" s="38"/>
-      <c r="U45" s="38">
-        <v>0</v>
-      </c>
-      <c r="V45" s="38"/>
-      <c r="W45" s="38"/>
-      <c r="X45" s="38">
-        <v>0</v>
-      </c>
-      <c r="Y45" s="38"/>
-      <c r="Z45" s="38"/>
-      <c r="AA45" s="38"/>
-      <c r="AB45" s="38"/>
-      <c r="AC45" s="39" t="s">
+      <c r="P45" s="35">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="35"/>
+      <c r="R45" s="35"/>
+      <c r="S45" s="35"/>
+      <c r="T45" s="35"/>
+      <c r="U45" s="35">
+        <v>0</v>
+      </c>
+      <c r="V45" s="35"/>
+      <c r="W45" s="35"/>
+      <c r="X45" s="35">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="35"/>
+      <c r="Z45" s="35"/>
+      <c r="AA45" s="35"/>
+      <c r="AB45" s="35"/>
+      <c r="AC45" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="AD45" s="39"/>
-      <c r="AE45" s="39"/>
-      <c r="AF45" s="39"/>
-      <c r="AG45" s="39"/>
+      <c r="AD45" s="36"/>
+      <c r="AE45" s="36"/>
+      <c r="AF45" s="36"/>
+      <c r="AG45" s="36"/>
       <c r="AH45" s="17">
         <v>1</v>
       </c>
@@ -4360,7 +4368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A46" s="2"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9" t="s">
@@ -4402,32 +4410,32 @@
       <c r="O46" s="14">
         <v>0</v>
       </c>
-      <c r="P46" s="38">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="38"/>
-      <c r="R46" s="38"/>
-      <c r="S46" s="38"/>
-      <c r="T46" s="38"/>
-      <c r="U46" s="38">
-        <v>0</v>
-      </c>
-      <c r="V46" s="38"/>
-      <c r="W46" s="38"/>
-      <c r="X46" s="38">
-        <v>0</v>
-      </c>
-      <c r="Y46" s="38"/>
-      <c r="Z46" s="38"/>
-      <c r="AA46" s="38"/>
-      <c r="AB46" s="38"/>
-      <c r="AC46" s="39" t="s">
+      <c r="P46" s="35">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="35"/>
+      <c r="R46" s="35"/>
+      <c r="S46" s="35"/>
+      <c r="T46" s="35"/>
+      <c r="U46" s="35">
+        <v>0</v>
+      </c>
+      <c r="V46" s="35"/>
+      <c r="W46" s="35"/>
+      <c r="X46" s="35">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="35"/>
+      <c r="Z46" s="35"/>
+      <c r="AA46" s="35"/>
+      <c r="AB46" s="35"/>
+      <c r="AC46" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="AD46" s="39"/>
-      <c r="AE46" s="39"/>
-      <c r="AF46" s="39"/>
-      <c r="AG46" s="39"/>
+      <c r="AD46" s="36"/>
+      <c r="AE46" s="36"/>
+      <c r="AF46" s="36"/>
+      <c r="AG46" s="36"/>
       <c r="AH46" s="17">
         <v>1</v>
       </c>
@@ -4435,7 +4443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A47" s="2"/>
       <c r="B47" s="9"/>
       <c r="C47" s="9" t="s">
@@ -4477,32 +4485,32 @@
       <c r="O47" s="14">
         <v>0</v>
       </c>
-      <c r="P47" s="38">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="38"/>
-      <c r="R47" s="38"/>
-      <c r="S47" s="38"/>
-      <c r="T47" s="38"/>
-      <c r="U47" s="38">
-        <v>0</v>
-      </c>
-      <c r="V47" s="38"/>
-      <c r="W47" s="38"/>
-      <c r="X47" s="38">
-        <v>0</v>
-      </c>
-      <c r="Y47" s="38"/>
-      <c r="Z47" s="38"/>
-      <c r="AA47" s="38"/>
-      <c r="AB47" s="38"/>
-      <c r="AC47" s="39" t="s">
+      <c r="P47" s="35">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="35"/>
+      <c r="R47" s="35"/>
+      <c r="S47" s="35"/>
+      <c r="T47" s="35"/>
+      <c r="U47" s="35">
+        <v>0</v>
+      </c>
+      <c r="V47" s="35"/>
+      <c r="W47" s="35"/>
+      <c r="X47" s="35">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="35"/>
+      <c r="Z47" s="35"/>
+      <c r="AA47" s="35"/>
+      <c r="AB47" s="35"/>
+      <c r="AC47" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="AD47" s="39"/>
-      <c r="AE47" s="39"/>
-      <c r="AF47" s="39"/>
-      <c r="AG47" s="39"/>
+      <c r="AD47" s="36"/>
+      <c r="AE47" s="36"/>
+      <c r="AF47" s="36"/>
+      <c r="AG47" s="36"/>
       <c r="AH47" s="17">
         <v>1</v>
       </c>
@@ -4510,7 +4518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A48" s="2"/>
       <c r="B48" s="9"/>
       <c r="C48" s="9" t="s">
@@ -4552,32 +4560,32 @@
       <c r="O48" s="13">
         <v>1</v>
       </c>
-      <c r="P48" s="38">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="38"/>
-      <c r="R48" s="38"/>
-      <c r="S48" s="38"/>
-      <c r="T48" s="38"/>
-      <c r="U48" s="38">
-        <v>0</v>
-      </c>
-      <c r="V48" s="38"/>
-      <c r="W48" s="38"/>
-      <c r="X48" s="38">
-        <v>0</v>
-      </c>
-      <c r="Y48" s="38"/>
-      <c r="Z48" s="38"/>
-      <c r="AA48" s="38"/>
-      <c r="AB48" s="38"/>
-      <c r="AC48" s="39" t="s">
+      <c r="P48" s="35">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="35"/>
+      <c r="R48" s="35"/>
+      <c r="S48" s="35"/>
+      <c r="T48" s="35"/>
+      <c r="U48" s="35">
+        <v>0</v>
+      </c>
+      <c r="V48" s="35"/>
+      <c r="W48" s="35"/>
+      <c r="X48" s="35">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="35"/>
+      <c r="Z48" s="35"/>
+      <c r="AA48" s="35"/>
+      <c r="AB48" s="35"/>
+      <c r="AC48" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="AD48" s="39"/>
-      <c r="AE48" s="39"/>
-      <c r="AF48" s="39"/>
-      <c r="AG48" s="39"/>
+      <c r="AD48" s="36"/>
+      <c r="AE48" s="36"/>
+      <c r="AF48" s="36"/>
+      <c r="AG48" s="36"/>
       <c r="AH48" s="17">
         <v>1</v>
       </c>
@@ -4585,7 +4593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A49" s="2"/>
       <c r="B49" s="9"/>
       <c r="C49" s="9" t="s">
@@ -4627,32 +4635,32 @@
       <c r="O49" s="13">
         <v>1</v>
       </c>
-      <c r="P49" s="38">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="38"/>
-      <c r="R49" s="38"/>
-      <c r="S49" s="38"/>
-      <c r="T49" s="38"/>
-      <c r="U49" s="38">
-        <v>0</v>
-      </c>
-      <c r="V49" s="38"/>
-      <c r="W49" s="38"/>
-      <c r="X49" s="38">
-        <v>0</v>
-      </c>
-      <c r="Y49" s="38"/>
-      <c r="Z49" s="38"/>
-      <c r="AA49" s="38"/>
-      <c r="AB49" s="38"/>
-      <c r="AC49" s="39" t="s">
+      <c r="P49" s="35">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="35"/>
+      <c r="R49" s="35"/>
+      <c r="S49" s="35"/>
+      <c r="T49" s="35"/>
+      <c r="U49" s="35">
+        <v>0</v>
+      </c>
+      <c r="V49" s="35"/>
+      <c r="W49" s="35"/>
+      <c r="X49" s="35">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="35"/>
+      <c r="Z49" s="35"/>
+      <c r="AA49" s="35"/>
+      <c r="AB49" s="35"/>
+      <c r="AC49" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="AD49" s="39"/>
-      <c r="AE49" s="39"/>
-      <c r="AF49" s="39"/>
-      <c r="AG49" s="39"/>
+      <c r="AD49" s="36"/>
+      <c r="AE49" s="36"/>
+      <c r="AF49" s="36"/>
+      <c r="AG49" s="36"/>
       <c r="AH49" s="17">
         <v>1</v>
       </c>
@@ -4660,7 +4668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>20</v>
       </c>
@@ -4670,46 +4678,46 @@
       <c r="C50" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="D50" s="38" t="s">
+      <c r="D50" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="E50" s="38"/>
-      <c r="F50" s="38"/>
-      <c r="G50" s="38"/>
-      <c r="H50" s="38"/>
-      <c r="I50" s="38"/>
-      <c r="J50" s="38"/>
-      <c r="K50" s="38"/>
-      <c r="L50" s="38"/>
-      <c r="M50" s="38"/>
-      <c r="N50" s="38"/>
-      <c r="O50" s="38"/>
-      <c r="P50" s="38" t="s">
+      <c r="E50" s="35"/>
+      <c r="F50" s="35"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="35"/>
+      <c r="I50" s="35"/>
+      <c r="J50" s="35"/>
+      <c r="K50" s="35"/>
+      <c r="L50" s="35"/>
+      <c r="M50" s="35"/>
+      <c r="N50" s="35"/>
+      <c r="O50" s="35"/>
+      <c r="P50" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="Q50" s="38"/>
-      <c r="R50" s="38"/>
-      <c r="S50" s="38"/>
-      <c r="T50" s="38"/>
-      <c r="U50" s="38">
-        <v>1</v>
-      </c>
-      <c r="V50" s="38"/>
-      <c r="W50" s="38"/>
-      <c r="X50" s="38" t="s">
+      <c r="Q50" s="35"/>
+      <c r="R50" s="35"/>
+      <c r="S50" s="35"/>
+      <c r="T50" s="35"/>
+      <c r="U50" s="35">
+        <v>1</v>
+      </c>
+      <c r="V50" s="35"/>
+      <c r="W50" s="35"/>
+      <c r="X50" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="Y50" s="38"/>
-      <c r="Z50" s="38"/>
-      <c r="AA50" s="38"/>
-      <c r="AB50" s="38"/>
-      <c r="AC50" s="39" t="s">
+      <c r="Y50" s="35"/>
+      <c r="Z50" s="35"/>
+      <c r="AA50" s="35"/>
+      <c r="AB50" s="35"/>
+      <c r="AC50" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="AD50" s="39"/>
-      <c r="AE50" s="39"/>
-      <c r="AF50" s="39"/>
-      <c r="AG50" s="39"/>
+      <c r="AD50" s="36"/>
+      <c r="AE50" s="36"/>
+      <c r="AF50" s="36"/>
+      <c r="AG50" s="36"/>
       <c r="AH50" s="15">
         <v>1</v>
       </c>
@@ -4717,7 +4725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>20</v>
       </c>
@@ -4727,46 +4735,46 @@
       <c r="C51" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D51" s="38" t="s">
+      <c r="D51" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="E51" s="38"/>
-      <c r="F51" s="38"/>
-      <c r="G51" s="38"/>
-      <c r="H51" s="38"/>
-      <c r="I51" s="38"/>
-      <c r="J51" s="38"/>
-      <c r="K51" s="38"/>
-      <c r="L51" s="38"/>
-      <c r="M51" s="38"/>
-      <c r="N51" s="38"/>
-      <c r="O51" s="38"/>
-      <c r="P51" s="38" t="s">
+      <c r="E51" s="35"/>
+      <c r="F51" s="35"/>
+      <c r="G51" s="35"/>
+      <c r="H51" s="35"/>
+      <c r="I51" s="35"/>
+      <c r="J51" s="35"/>
+      <c r="K51" s="35"/>
+      <c r="L51" s="35"/>
+      <c r="M51" s="35"/>
+      <c r="N51" s="35"/>
+      <c r="O51" s="35"/>
+      <c r="P51" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="Q51" s="38"/>
-      <c r="R51" s="38"/>
-      <c r="S51" s="38"/>
-      <c r="T51" s="38"/>
-      <c r="U51" s="38">
+      <c r="Q51" s="35"/>
+      <c r="R51" s="35"/>
+      <c r="S51" s="35"/>
+      <c r="T51" s="35"/>
+      <c r="U51" s="35">
         <v>2</v>
       </c>
-      <c r="V51" s="38"/>
-      <c r="W51" s="38"/>
-      <c r="X51" s="38" t="s">
+      <c r="V51" s="35"/>
+      <c r="W51" s="35"/>
+      <c r="X51" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="Y51" s="38"/>
-      <c r="Z51" s="38"/>
-      <c r="AA51" s="38"/>
-      <c r="AB51" s="38"/>
-      <c r="AC51" s="39" t="s">
+      <c r="Y51" s="35"/>
+      <c r="Z51" s="35"/>
+      <c r="AA51" s="35"/>
+      <c r="AB51" s="35"/>
+      <c r="AC51" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="AD51" s="39"/>
-      <c r="AE51" s="39"/>
-      <c r="AF51" s="39"/>
-      <c r="AG51" s="39"/>
+      <c r="AD51" s="36"/>
+      <c r="AE51" s="36"/>
+      <c r="AF51" s="36"/>
+      <c r="AG51" s="36"/>
       <c r="AH51" s="15">
         <v>1</v>
       </c>
@@ -4774,7 +4782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>20</v>
       </c>
@@ -4784,46 +4792,46 @@
       <c r="C52" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D52" s="38" t="s">
+      <c r="D52" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="E52" s="38"/>
-      <c r="F52" s="38"/>
-      <c r="G52" s="38"/>
-      <c r="H52" s="38"/>
-      <c r="I52" s="38"/>
-      <c r="J52" s="38"/>
-      <c r="K52" s="38"/>
-      <c r="L52" s="38"/>
-      <c r="M52" s="38"/>
-      <c r="N52" s="38"/>
-      <c r="O52" s="38"/>
-      <c r="P52" s="38" t="s">
+      <c r="E52" s="35"/>
+      <c r="F52" s="35"/>
+      <c r="G52" s="35"/>
+      <c r="H52" s="35"/>
+      <c r="I52" s="35"/>
+      <c r="J52" s="35"/>
+      <c r="K52" s="35"/>
+      <c r="L52" s="35"/>
+      <c r="M52" s="35"/>
+      <c r="N52" s="35"/>
+      <c r="O52" s="35"/>
+      <c r="P52" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="Q52" s="38"/>
-      <c r="R52" s="38"/>
-      <c r="S52" s="38"/>
-      <c r="T52" s="38"/>
-      <c r="U52" s="38">
+      <c r="Q52" s="35"/>
+      <c r="R52" s="35"/>
+      <c r="S52" s="35"/>
+      <c r="T52" s="35"/>
+      <c r="U52" s="35">
         <v>3</v>
       </c>
-      <c r="V52" s="38"/>
-      <c r="W52" s="38"/>
-      <c r="X52" s="38" t="s">
+      <c r="V52" s="35"/>
+      <c r="W52" s="35"/>
+      <c r="X52" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="Y52" s="38"/>
-      <c r="Z52" s="38"/>
-      <c r="AA52" s="38"/>
-      <c r="AB52" s="38"/>
-      <c r="AC52" s="39" t="s">
+      <c r="Y52" s="35"/>
+      <c r="Z52" s="35"/>
+      <c r="AA52" s="35"/>
+      <c r="AB52" s="35"/>
+      <c r="AC52" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="AD52" s="39"/>
-      <c r="AE52" s="39"/>
-      <c r="AF52" s="39"/>
-      <c r="AG52" s="39"/>
+      <c r="AD52" s="36"/>
+      <c r="AE52" s="36"/>
+      <c r="AF52" s="36"/>
+      <c r="AG52" s="36"/>
       <c r="AH52" s="15">
         <v>1</v>
       </c>
@@ -4831,7 +4839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>20</v>
       </c>
@@ -4841,46 +4849,46 @@
       <c r="C53" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="D53" s="38" t="s">
+      <c r="D53" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="E53" s="38"/>
-      <c r="F53" s="38"/>
-      <c r="G53" s="38"/>
-      <c r="H53" s="38"/>
-      <c r="I53" s="38"/>
-      <c r="J53" s="38"/>
-      <c r="K53" s="38"/>
-      <c r="L53" s="38"/>
-      <c r="M53" s="38"/>
-      <c r="N53" s="38"/>
-      <c r="O53" s="38"/>
-      <c r="P53" s="38" t="s">
+      <c r="E53" s="35"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="35"/>
+      <c r="I53" s="35"/>
+      <c r="J53" s="35"/>
+      <c r="K53" s="35"/>
+      <c r="L53" s="35"/>
+      <c r="M53" s="35"/>
+      <c r="N53" s="35"/>
+      <c r="O53" s="35"/>
+      <c r="P53" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="Q53" s="38"/>
-      <c r="R53" s="38"/>
-      <c r="S53" s="38"/>
-      <c r="T53" s="38"/>
-      <c r="U53" s="38">
+      <c r="Q53" s="35"/>
+      <c r="R53" s="35"/>
+      <c r="S53" s="35"/>
+      <c r="T53" s="35"/>
+      <c r="U53" s="35">
         <v>5</v>
       </c>
-      <c r="V53" s="38"/>
-      <c r="W53" s="38"/>
-      <c r="X53" s="38" t="s">
+      <c r="V53" s="35"/>
+      <c r="W53" s="35"/>
+      <c r="X53" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="Y53" s="38"/>
-      <c r="Z53" s="38"/>
-      <c r="AA53" s="38"/>
-      <c r="AB53" s="38"/>
-      <c r="AC53" s="39" t="s">
+      <c r="Y53" s="35"/>
+      <c r="Z53" s="35"/>
+      <c r="AA53" s="35"/>
+      <c r="AB53" s="35"/>
+      <c r="AC53" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="AD53" s="39"/>
-      <c r="AE53" s="39"/>
-      <c r="AF53" s="39"/>
-      <c r="AG53" s="39"/>
+      <c r="AD53" s="36"/>
+      <c r="AE53" s="36"/>
+      <c r="AF53" s="36"/>
+      <c r="AG53" s="36"/>
       <c r="AH53" s="15">
         <v>1</v>
       </c>
@@ -4888,7 +4896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>20</v>
       </c>
@@ -4898,46 +4906,46 @@
       <c r="C54" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D54" s="38" t="s">
+      <c r="D54" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="E54" s="38"/>
-      <c r="F54" s="38"/>
-      <c r="G54" s="38"/>
-      <c r="H54" s="38"/>
-      <c r="I54" s="38"/>
-      <c r="J54" s="38"/>
-      <c r="K54" s="38"/>
-      <c r="L54" s="38"/>
-      <c r="M54" s="38"/>
-      <c r="N54" s="38"/>
-      <c r="O54" s="38"/>
-      <c r="P54" s="38" t="s">
+      <c r="E54" s="35"/>
+      <c r="F54" s="35"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="35"/>
+      <c r="I54" s="35"/>
+      <c r="J54" s="35"/>
+      <c r="K54" s="35"/>
+      <c r="L54" s="35"/>
+      <c r="M54" s="35"/>
+      <c r="N54" s="35"/>
+      <c r="O54" s="35"/>
+      <c r="P54" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="Q54" s="38"/>
-      <c r="R54" s="38"/>
-      <c r="S54" s="38"/>
-      <c r="T54" s="38"/>
-      <c r="U54" s="38">
+      <c r="Q54" s="35"/>
+      <c r="R54" s="35"/>
+      <c r="S54" s="35"/>
+      <c r="T54" s="35"/>
+      <c r="U54" s="35">
         <v>6</v>
       </c>
-      <c r="V54" s="38"/>
-      <c r="W54" s="38"/>
-      <c r="X54" s="38" t="s">
+      <c r="V54" s="35"/>
+      <c r="W54" s="35"/>
+      <c r="X54" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="Y54" s="38"/>
-      <c r="Z54" s="38"/>
-      <c r="AA54" s="38"/>
-      <c r="AB54" s="38"/>
-      <c r="AC54" s="39" t="s">
+      <c r="Y54" s="35"/>
+      <c r="Z54" s="35"/>
+      <c r="AA54" s="35"/>
+      <c r="AB54" s="35"/>
+      <c r="AC54" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="AD54" s="39"/>
-      <c r="AE54" s="39"/>
-      <c r="AF54" s="39"/>
-      <c r="AG54" s="39"/>
+      <c r="AD54" s="36"/>
+      <c r="AE54" s="36"/>
+      <c r="AF54" s="36"/>
+      <c r="AG54" s="36"/>
       <c r="AH54" s="15">
         <v>1</v>
       </c>
@@ -4945,7 +4953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>20</v>
       </c>
@@ -4955,46 +4963,46 @@
       <c r="C55" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="D55" s="38" t="s">
+      <c r="D55" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="E55" s="38"/>
-      <c r="F55" s="38"/>
-      <c r="G55" s="38"/>
-      <c r="H55" s="38"/>
-      <c r="I55" s="38"/>
-      <c r="J55" s="38"/>
-      <c r="K55" s="38"/>
-      <c r="L55" s="38"/>
-      <c r="M55" s="38"/>
-      <c r="N55" s="38"/>
-      <c r="O55" s="38"/>
-      <c r="P55" s="38" t="s">
+      <c r="E55" s="35"/>
+      <c r="F55" s="35"/>
+      <c r="G55" s="35"/>
+      <c r="H55" s="35"/>
+      <c r="I55" s="35"/>
+      <c r="J55" s="35"/>
+      <c r="K55" s="35"/>
+      <c r="L55" s="35"/>
+      <c r="M55" s="35"/>
+      <c r="N55" s="35"/>
+      <c r="O55" s="35"/>
+      <c r="P55" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="Q55" s="38"/>
-      <c r="R55" s="38"/>
-      <c r="S55" s="38"/>
-      <c r="T55" s="38"/>
-      <c r="U55" s="38">
+      <c r="Q55" s="35"/>
+      <c r="R55" s="35"/>
+      <c r="S55" s="35"/>
+      <c r="T55" s="35"/>
+      <c r="U55" s="35">
         <v>7</v>
       </c>
-      <c r="V55" s="38"/>
-      <c r="W55" s="38"/>
-      <c r="X55" s="38" t="s">
+      <c r="V55" s="35"/>
+      <c r="W55" s="35"/>
+      <c r="X55" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="Y55" s="38"/>
-      <c r="Z55" s="38"/>
-      <c r="AA55" s="38"/>
-      <c r="AB55" s="38"/>
-      <c r="AC55" s="39" t="s">
+      <c r="Y55" s="35"/>
+      <c r="Z55" s="35"/>
+      <c r="AA55" s="35"/>
+      <c r="AB55" s="35"/>
+      <c r="AC55" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="AD55" s="39"/>
-      <c r="AE55" s="39"/>
-      <c r="AF55" s="39"/>
-      <c r="AG55" s="39"/>
+      <c r="AD55" s="36"/>
+      <c r="AE55" s="36"/>
+      <c r="AF55" s="36"/>
+      <c r="AG55" s="36"/>
       <c r="AH55" s="15">
         <v>1</v>
       </c>
@@ -5002,7 +5010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A56" s="2"/>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
@@ -5131,7 +5139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
         <v>101</v>
       </c>
@@ -5140,49 +5148,49 @@
       <c r="D57" s="33">
         <v>11</v>
       </c>
-      <c r="E57" s="45" t="s">
+      <c r="E57" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="F57" s="46"/>
-      <c r="G57" s="46"/>
-      <c r="H57" s="46"/>
-      <c r="I57" s="46"/>
-      <c r="J57" s="47"/>
-      <c r="K57" s="42" t="s">
+      <c r="F57" s="39"/>
+      <c r="G57" s="39"/>
+      <c r="H57" s="39"/>
+      <c r="I57" s="39"/>
+      <c r="J57" s="40"/>
+      <c r="K57" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="L57" s="42"/>
-      <c r="M57" s="42"/>
-      <c r="N57" s="42"/>
-      <c r="O57" s="42"/>
-      <c r="P57" s="43" t="s">
+      <c r="L57" s="68"/>
+      <c r="M57" s="68"/>
+      <c r="N57" s="68"/>
+      <c r="O57" s="68"/>
+      <c r="P57" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="Q57" s="43"/>
-      <c r="R57" s="43"/>
-      <c r="S57" s="43"/>
-      <c r="T57" s="43"/>
-      <c r="U57" s="44" t="s">
+      <c r="Q57" s="54"/>
+      <c r="R57" s="54"/>
+      <c r="S57" s="54"/>
+      <c r="T57" s="54"/>
+      <c r="U57" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="V57" s="44"/>
-      <c r="W57" s="44"/>
-      <c r="X57" s="45" t="s">
+      <c r="V57" s="45"/>
+      <c r="W57" s="45"/>
+      <c r="X57" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="Y57" s="46"/>
-      <c r="Z57" s="46"/>
-      <c r="AA57" s="47"/>
+      <c r="Y57" s="39"/>
+      <c r="Z57" s="39"/>
+      <c r="AA57" s="40"/>
       <c r="AB57" s="33">
         <v>10</v>
       </c>
-      <c r="AC57" s="44" t="s">
+      <c r="AC57" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="AD57" s="44"/>
-      <c r="AE57" s="44"/>
-      <c r="AF57" s="44"/>
-      <c r="AG57" s="44"/>
+      <c r="AD57" s="45"/>
+      <c r="AE57" s="45"/>
+      <c r="AF57" s="45"/>
+      <c r="AG57" s="45"/>
       <c r="AH57" s="16">
         <v>1</v>
       </c>
@@ -5190,7 +5198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>104</v>
       </c>
@@ -5203,49 +5211,49 @@
       <c r="D58" s="34">
         <v>11</v>
       </c>
-      <c r="E58" s="35" t="s">
+      <c r="E58" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="F58" s="36"/>
-      <c r="G58" s="36"/>
-      <c r="H58" s="36"/>
-      <c r="I58" s="36"/>
-      <c r="J58" s="37"/>
-      <c r="K58" s="40" t="s">
+      <c r="F58" s="42"/>
+      <c r="G58" s="42"/>
+      <c r="H58" s="42"/>
+      <c r="I58" s="42"/>
+      <c r="J58" s="43"/>
+      <c r="K58" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="L58" s="40"/>
-      <c r="M58" s="40"/>
-      <c r="N58" s="40"/>
-      <c r="O58" s="40"/>
-      <c r="P58" s="40" t="s">
+      <c r="L58" s="37"/>
+      <c r="M58" s="37"/>
+      <c r="N58" s="37"/>
+      <c r="O58" s="37"/>
+      <c r="P58" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="Q58" s="40"/>
-      <c r="R58" s="40"/>
-      <c r="S58" s="40"/>
-      <c r="T58" s="40"/>
-      <c r="U58" s="40">
-        <v>0</v>
-      </c>
-      <c r="V58" s="40"/>
-      <c r="W58" s="40"/>
-      <c r="X58" s="35" t="s">
+      <c r="Q58" s="37"/>
+      <c r="R58" s="37"/>
+      <c r="S58" s="37"/>
+      <c r="T58" s="37"/>
+      <c r="U58" s="37">
+        <v>0</v>
+      </c>
+      <c r="V58" s="37"/>
+      <c r="W58" s="37"/>
+      <c r="X58" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="Y58" s="36"/>
-      <c r="Z58" s="36"/>
-      <c r="AA58" s="37"/>
+      <c r="Y58" s="42"/>
+      <c r="Z58" s="42"/>
+      <c r="AA58" s="43"/>
       <c r="AB58" s="34">
         <v>10</v>
       </c>
-      <c r="AC58" s="40" t="s">
+      <c r="AC58" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="AD58" s="40"/>
-      <c r="AE58" s="40"/>
-      <c r="AF58" s="40"/>
-      <c r="AG58" s="40"/>
+      <c r="AD58" s="37"/>
+      <c r="AE58" s="37"/>
+      <c r="AF58" s="37"/>
+      <c r="AG58" s="37"/>
       <c r="AH58" s="11">
         <v>1</v>
       </c>
@@ -5253,7 +5261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
         <v>104</v>
       </c>
@@ -5266,49 +5274,49 @@
       <c r="D59" s="34">
         <v>11</v>
       </c>
-      <c r="E59" s="35" t="s">
+      <c r="E59" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="F59" s="36"/>
-      <c r="G59" s="36"/>
-      <c r="H59" s="36"/>
-      <c r="I59" s="36"/>
-      <c r="J59" s="37"/>
-      <c r="K59" s="40" t="s">
+      <c r="F59" s="42"/>
+      <c r="G59" s="42"/>
+      <c r="H59" s="42"/>
+      <c r="I59" s="42"/>
+      <c r="J59" s="43"/>
+      <c r="K59" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="L59" s="40"/>
-      <c r="M59" s="40"/>
-      <c r="N59" s="40"/>
-      <c r="O59" s="40"/>
-      <c r="P59" s="40" t="s">
+      <c r="L59" s="37"/>
+      <c r="M59" s="37"/>
+      <c r="N59" s="37"/>
+      <c r="O59" s="37"/>
+      <c r="P59" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="Q59" s="40"/>
-      <c r="R59" s="40"/>
-      <c r="S59" s="40"/>
-      <c r="T59" s="40"/>
-      <c r="U59" s="40">
-        <v>1</v>
-      </c>
-      <c r="V59" s="40"/>
-      <c r="W59" s="40"/>
-      <c r="X59" s="35" t="s">
+      <c r="Q59" s="37"/>
+      <c r="R59" s="37"/>
+      <c r="S59" s="37"/>
+      <c r="T59" s="37"/>
+      <c r="U59" s="37">
+        <v>1</v>
+      </c>
+      <c r="V59" s="37"/>
+      <c r="W59" s="37"/>
+      <c r="X59" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="Y59" s="36"/>
-      <c r="Z59" s="36"/>
-      <c r="AA59" s="37"/>
+      <c r="Y59" s="42"/>
+      <c r="Z59" s="42"/>
+      <c r="AA59" s="43"/>
       <c r="AB59" s="34">
         <v>10</v>
       </c>
-      <c r="AC59" s="40" t="s">
+      <c r="AC59" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="AD59" s="40"/>
-      <c r="AE59" s="40"/>
-      <c r="AF59" s="40"/>
-      <c r="AG59" s="40"/>
+      <c r="AD59" s="37"/>
+      <c r="AE59" s="37"/>
+      <c r="AF59" s="37"/>
+      <c r="AG59" s="37"/>
       <c r="AH59" s="11">
         <v>1</v>
       </c>
@@ -5316,7 +5324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
         <v>104</v>
       </c>
@@ -5329,49 +5337,49 @@
       <c r="D60" s="34">
         <v>11</v>
       </c>
-      <c r="E60" s="35" t="s">
+      <c r="E60" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="F60" s="36"/>
-      <c r="G60" s="36"/>
-      <c r="H60" s="36"/>
-      <c r="I60" s="36"/>
-      <c r="J60" s="37"/>
-      <c r="K60" s="40" t="s">
+      <c r="F60" s="42"/>
+      <c r="G60" s="42"/>
+      <c r="H60" s="42"/>
+      <c r="I60" s="42"/>
+      <c r="J60" s="43"/>
+      <c r="K60" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="L60" s="40"/>
-      <c r="M60" s="40"/>
-      <c r="N60" s="40"/>
-      <c r="O60" s="40"/>
-      <c r="P60" s="40" t="s">
+      <c r="L60" s="37"/>
+      <c r="M60" s="37"/>
+      <c r="N60" s="37"/>
+      <c r="O60" s="37"/>
+      <c r="P60" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="Q60" s="40"/>
-      <c r="R60" s="40"/>
-      <c r="S60" s="40"/>
-      <c r="T60" s="40"/>
-      <c r="U60" s="40">
+      <c r="Q60" s="37"/>
+      <c r="R60" s="37"/>
+      <c r="S60" s="37"/>
+      <c r="T60" s="37"/>
+      <c r="U60" s="37">
         <v>4</v>
       </c>
-      <c r="V60" s="40"/>
-      <c r="W60" s="40"/>
-      <c r="X60" s="35" t="s">
+      <c r="V60" s="37"/>
+      <c r="W60" s="37"/>
+      <c r="X60" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="Y60" s="36"/>
-      <c r="Z60" s="36"/>
-      <c r="AA60" s="37"/>
+      <c r="Y60" s="42"/>
+      <c r="Z60" s="42"/>
+      <c r="AA60" s="43"/>
       <c r="AB60" s="34">
         <v>10</v>
       </c>
-      <c r="AC60" s="40" t="s">
+      <c r="AC60" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="AD60" s="40"/>
-      <c r="AE60" s="40"/>
-      <c r="AF60" s="40"/>
-      <c r="AG60" s="40"/>
+      <c r="AD60" s="37"/>
+      <c r="AE60" s="37"/>
+      <c r="AF60" s="37"/>
+      <c r="AG60" s="37"/>
       <c r="AH60" s="11">
         <v>1</v>
       </c>
@@ -5379,7 +5387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>104</v>
       </c>
@@ -5392,49 +5400,49 @@
       <c r="D61" s="34">
         <v>11</v>
       </c>
-      <c r="E61" s="35" t="s">
+      <c r="E61" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="F61" s="36"/>
-      <c r="G61" s="36"/>
-      <c r="H61" s="36"/>
-      <c r="I61" s="36"/>
-      <c r="J61" s="37"/>
-      <c r="K61" s="40" t="s">
+      <c r="F61" s="42"/>
+      <c r="G61" s="42"/>
+      <c r="H61" s="42"/>
+      <c r="I61" s="42"/>
+      <c r="J61" s="43"/>
+      <c r="K61" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="L61" s="40"/>
-      <c r="M61" s="40"/>
-      <c r="N61" s="40"/>
-      <c r="O61" s="40"/>
-      <c r="P61" s="40" t="s">
+      <c r="L61" s="37"/>
+      <c r="M61" s="37"/>
+      <c r="N61" s="37"/>
+      <c r="O61" s="37"/>
+      <c r="P61" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="Q61" s="40"/>
-      <c r="R61" s="40"/>
-      <c r="S61" s="40"/>
-      <c r="T61" s="40"/>
-      <c r="U61" s="40">
+      <c r="Q61" s="37"/>
+      <c r="R61" s="37"/>
+      <c r="S61" s="37"/>
+      <c r="T61" s="37"/>
+      <c r="U61" s="37">
         <v>5</v>
       </c>
-      <c r="V61" s="40"/>
-      <c r="W61" s="40"/>
-      <c r="X61" s="35" t="s">
+      <c r="V61" s="37"/>
+      <c r="W61" s="37"/>
+      <c r="X61" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="Y61" s="36"/>
-      <c r="Z61" s="36"/>
-      <c r="AA61" s="37"/>
+      <c r="Y61" s="42"/>
+      <c r="Z61" s="42"/>
+      <c r="AA61" s="43"/>
       <c r="AB61" s="34">
         <v>10</v>
       </c>
-      <c r="AC61" s="40" t="s">
+      <c r="AC61" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="AD61" s="40"/>
-      <c r="AE61" s="40"/>
-      <c r="AF61" s="40"/>
-      <c r="AG61" s="40"/>
+      <c r="AD61" s="37"/>
+      <c r="AE61" s="37"/>
+      <c r="AF61" s="37"/>
+      <c r="AG61" s="37"/>
       <c r="AH61" s="11">
         <v>1</v>
       </c>
@@ -5442,7 +5450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>104</v>
       </c>
@@ -5455,49 +5463,49 @@
       <c r="D62" s="34">
         <v>11</v>
       </c>
-      <c r="E62" s="35" t="s">
+      <c r="E62" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="F62" s="36"/>
-      <c r="G62" s="36"/>
-      <c r="H62" s="36"/>
-      <c r="I62" s="36"/>
-      <c r="J62" s="37"/>
-      <c r="K62" s="40" t="s">
+      <c r="F62" s="42"/>
+      <c r="G62" s="42"/>
+      <c r="H62" s="42"/>
+      <c r="I62" s="42"/>
+      <c r="J62" s="43"/>
+      <c r="K62" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="L62" s="40"/>
-      <c r="M62" s="40"/>
-      <c r="N62" s="40"/>
-      <c r="O62" s="40"/>
-      <c r="P62" s="40" t="s">
+      <c r="L62" s="37"/>
+      <c r="M62" s="37"/>
+      <c r="N62" s="37"/>
+      <c r="O62" s="37"/>
+      <c r="P62" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="Q62" s="40"/>
-      <c r="R62" s="40"/>
-      <c r="S62" s="40"/>
-      <c r="T62" s="40"/>
-      <c r="U62" s="40">
+      <c r="Q62" s="37"/>
+      <c r="R62" s="37"/>
+      <c r="S62" s="37"/>
+      <c r="T62" s="37"/>
+      <c r="U62" s="37">
         <v>6</v>
       </c>
-      <c r="V62" s="40"/>
-      <c r="W62" s="40"/>
-      <c r="X62" s="35" t="s">
+      <c r="V62" s="37"/>
+      <c r="W62" s="37"/>
+      <c r="X62" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="Y62" s="36"/>
-      <c r="Z62" s="36"/>
-      <c r="AA62" s="37"/>
+      <c r="Y62" s="42"/>
+      <c r="Z62" s="42"/>
+      <c r="AA62" s="43"/>
       <c r="AB62" s="34">
         <v>10</v>
       </c>
-      <c r="AC62" s="40" t="s">
+      <c r="AC62" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="AD62" s="40"/>
-      <c r="AE62" s="40"/>
-      <c r="AF62" s="40"/>
-      <c r="AG62" s="40"/>
+      <c r="AD62" s="37"/>
+      <c r="AE62" s="37"/>
+      <c r="AF62" s="37"/>
+      <c r="AG62" s="37"/>
       <c r="AH62" s="11">
         <v>1</v>
       </c>
@@ -5505,7 +5513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>104</v>
       </c>
@@ -5518,49 +5526,49 @@
       <c r="D63" s="34">
         <v>11</v>
       </c>
-      <c r="E63" s="35" t="s">
+      <c r="E63" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="F63" s="36"/>
-      <c r="G63" s="36"/>
-      <c r="H63" s="36"/>
-      <c r="I63" s="36"/>
-      <c r="J63" s="37"/>
-      <c r="K63" s="38" t="s">
+      <c r="F63" s="42"/>
+      <c r="G63" s="42"/>
+      <c r="H63" s="42"/>
+      <c r="I63" s="42"/>
+      <c r="J63" s="43"/>
+      <c r="K63" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="L63" s="38"/>
-      <c r="M63" s="38"/>
-      <c r="N63" s="38"/>
-      <c r="O63" s="38"/>
-      <c r="P63" s="38" t="s">
+      <c r="L63" s="35"/>
+      <c r="M63" s="35"/>
+      <c r="N63" s="35"/>
+      <c r="O63" s="35"/>
+      <c r="P63" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="Q63" s="38"/>
-      <c r="R63" s="38"/>
-      <c r="S63" s="38"/>
-      <c r="T63" s="38"/>
-      <c r="U63" s="38">
+      <c r="Q63" s="35"/>
+      <c r="R63" s="35"/>
+      <c r="S63" s="35"/>
+      <c r="T63" s="35"/>
+      <c r="U63" s="35">
         <v>7</v>
       </c>
-      <c r="V63" s="38"/>
-      <c r="W63" s="38"/>
-      <c r="X63" s="35" t="s">
+      <c r="V63" s="35"/>
+      <c r="W63" s="35"/>
+      <c r="X63" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="Y63" s="36"/>
-      <c r="Z63" s="36"/>
-      <c r="AA63" s="37"/>
+      <c r="Y63" s="42"/>
+      <c r="Z63" s="42"/>
+      <c r="AA63" s="43"/>
       <c r="AB63" s="34">
         <v>10</v>
       </c>
-      <c r="AC63" s="38" t="s">
+      <c r="AC63" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="AD63" s="38"/>
-      <c r="AE63" s="38"/>
-      <c r="AF63" s="38"/>
-      <c r="AG63" s="38"/>
+      <c r="AD63" s="35"/>
+      <c r="AE63" s="35"/>
+      <c r="AF63" s="35"/>
+      <c r="AG63" s="35"/>
       <c r="AH63" s="15">
         <v>1</v>
       </c>
@@ -5568,7 +5576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A64" s="2"/>
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
@@ -5697,54 +5705,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A65" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B65" s="5"/>
       <c r="C65" s="6"/>
-      <c r="D65" s="41" t="s">
+      <c r="D65" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="E65" s="41"/>
-      <c r="F65" s="41"/>
-      <c r="G65" s="41"/>
-      <c r="H65" s="41"/>
-      <c r="I65" s="41"/>
-      <c r="J65" s="41"/>
-      <c r="K65" s="42" t="s">
+      <c r="E65" s="49"/>
+      <c r="F65" s="49"/>
+      <c r="G65" s="49"/>
+      <c r="H65" s="49"/>
+      <c r="I65" s="49"/>
+      <c r="J65" s="49"/>
+      <c r="K65" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="L65" s="42"/>
-      <c r="M65" s="42"/>
-      <c r="N65" s="42"/>
-      <c r="O65" s="42"/>
-      <c r="P65" s="43" t="s">
+      <c r="L65" s="68"/>
+      <c r="M65" s="68"/>
+      <c r="N65" s="68"/>
+      <c r="O65" s="68"/>
+      <c r="P65" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="Q65" s="43"/>
-      <c r="R65" s="43"/>
-      <c r="S65" s="43"/>
-      <c r="T65" s="43"/>
-      <c r="U65" s="44" t="s">
+      <c r="Q65" s="54"/>
+      <c r="R65" s="54"/>
+      <c r="S65" s="54"/>
+      <c r="T65" s="54"/>
+      <c r="U65" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="V65" s="44"/>
-      <c r="W65" s="44"/>
-      <c r="X65" s="41" t="s">
+      <c r="V65" s="45"/>
+      <c r="W65" s="45"/>
+      <c r="X65" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="Y65" s="41"/>
-      <c r="Z65" s="41"/>
-      <c r="AA65" s="41"/>
-      <c r="AB65" s="41"/>
-      <c r="AC65" s="44" t="s">
+      <c r="Y65" s="49"/>
+      <c r="Z65" s="49"/>
+      <c r="AA65" s="49"/>
+      <c r="AB65" s="49"/>
+      <c r="AC65" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="AD65" s="44"/>
-      <c r="AE65" s="44"/>
-      <c r="AF65" s="44"/>
-      <c r="AG65" s="44"/>
+      <c r="AD65" s="45"/>
+      <c r="AE65" s="45"/>
+      <c r="AF65" s="45"/>
+      <c r="AG65" s="45"/>
       <c r="AH65" s="31">
         <v>1</v>
       </c>
@@ -5752,7 +5760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A66" s="22" t="s">
         <v>37</v>
       </c>
@@ -5762,48 +5770,48 @@
       <c r="C66" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="63" t="s">
+      <c r="D66" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="E66" s="64"/>
-      <c r="F66" s="64"/>
-      <c r="G66" s="64"/>
-      <c r="H66" s="64"/>
-      <c r="I66" s="64"/>
-      <c r="J66" s="65"/>
-      <c r="K66" s="63" t="s">
+      <c r="E66" s="51"/>
+      <c r="F66" s="51"/>
+      <c r="G66" s="51"/>
+      <c r="H66" s="51"/>
+      <c r="I66" s="51"/>
+      <c r="J66" s="52"/>
+      <c r="K66" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="L66" s="64"/>
-      <c r="M66" s="64"/>
-      <c r="N66" s="64"/>
-      <c r="O66" s="65"/>
-      <c r="P66" s="63" t="s">
+      <c r="L66" s="51"/>
+      <c r="M66" s="51"/>
+      <c r="N66" s="51"/>
+      <c r="O66" s="52"/>
+      <c r="P66" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="Q66" s="64"/>
-      <c r="R66" s="64"/>
-      <c r="S66" s="64"/>
-      <c r="T66" s="65"/>
-      <c r="U66" s="63">
-        <v>0</v>
-      </c>
-      <c r="V66" s="64"/>
-      <c r="W66" s="65"/>
-      <c r="X66" s="63" t="s">
+      <c r="Q66" s="51"/>
+      <c r="R66" s="51"/>
+      <c r="S66" s="51"/>
+      <c r="T66" s="52"/>
+      <c r="U66" s="50">
+        <v>0</v>
+      </c>
+      <c r="V66" s="51"/>
+      <c r="W66" s="52"/>
+      <c r="X66" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="Y66" s="64"/>
-      <c r="Z66" s="64"/>
-      <c r="AA66" s="64"/>
-      <c r="AB66" s="65"/>
-      <c r="AC66" s="63" t="s">
+      <c r="Y66" s="51"/>
+      <c r="Z66" s="51"/>
+      <c r="AA66" s="51"/>
+      <c r="AB66" s="52"/>
+      <c r="AC66" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="AD66" s="64"/>
-      <c r="AE66" s="64"/>
-      <c r="AF66" s="64"/>
-      <c r="AG66" s="65"/>
+      <c r="AD66" s="51"/>
+      <c r="AE66" s="51"/>
+      <c r="AF66" s="51"/>
+      <c r="AG66" s="52"/>
       <c r="AH66" s="30">
         <v>1</v>
       </c>
@@ -5811,7 +5819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A67" s="22" t="s">
         <v>37</v>
       </c>
@@ -5821,48 +5829,48 @@
       <c r="C67" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="D67" s="38" t="s">
+      <c r="D67" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="E67" s="38"/>
-      <c r="F67" s="38"/>
-      <c r="G67" s="38"/>
-      <c r="H67" s="38"/>
-      <c r="I67" s="38"/>
-      <c r="J67" s="38"/>
-      <c r="K67" s="38" t="s">
+      <c r="E67" s="35"/>
+      <c r="F67" s="35"/>
+      <c r="G67" s="35"/>
+      <c r="H67" s="35"/>
+      <c r="I67" s="35"/>
+      <c r="J67" s="35"/>
+      <c r="K67" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="L67" s="38"/>
-      <c r="M67" s="38"/>
-      <c r="N67" s="38"/>
-      <c r="O67" s="38"/>
-      <c r="P67" s="38" t="s">
+      <c r="L67" s="35"/>
+      <c r="M67" s="35"/>
+      <c r="N67" s="35"/>
+      <c r="O67" s="35"/>
+      <c r="P67" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="Q67" s="38"/>
-      <c r="R67" s="38"/>
-      <c r="S67" s="38"/>
-      <c r="T67" s="38"/>
-      <c r="U67" s="38">
-        <v>1</v>
-      </c>
-      <c r="V67" s="38"/>
-      <c r="W67" s="38"/>
-      <c r="X67" s="38" t="s">
+      <c r="Q67" s="35"/>
+      <c r="R67" s="35"/>
+      <c r="S67" s="35"/>
+      <c r="T67" s="35"/>
+      <c r="U67" s="35">
+        <v>1</v>
+      </c>
+      <c r="V67" s="35"/>
+      <c r="W67" s="35"/>
+      <c r="X67" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="Y67" s="38"/>
-      <c r="Z67" s="38"/>
-      <c r="AA67" s="38"/>
-      <c r="AB67" s="38"/>
-      <c r="AC67" s="38" t="s">
+      <c r="Y67" s="35"/>
+      <c r="Z67" s="35"/>
+      <c r="AA67" s="35"/>
+      <c r="AB67" s="35"/>
+      <c r="AC67" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="AD67" s="38"/>
-      <c r="AE67" s="38"/>
-      <c r="AF67" s="38"/>
-      <c r="AG67" s="38"/>
+      <c r="AD67" s="35"/>
+      <c r="AE67" s="35"/>
+      <c r="AF67" s="35"/>
+      <c r="AG67" s="35"/>
       <c r="AH67" s="15">
         <v>1</v>
       </c>
@@ -5870,7 +5878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A68" s="22" t="s">
         <v>37</v>
       </c>
@@ -5880,48 +5888,48 @@
       <c r="C68" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="D68" s="38" t="s">
+      <c r="D68" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="E68" s="38"/>
-      <c r="F68" s="38"/>
-      <c r="G68" s="38"/>
-      <c r="H68" s="38"/>
-      <c r="I68" s="38"/>
-      <c r="J68" s="38"/>
-      <c r="K68" s="38" t="s">
+      <c r="E68" s="35"/>
+      <c r="F68" s="35"/>
+      <c r="G68" s="35"/>
+      <c r="H68" s="35"/>
+      <c r="I68" s="35"/>
+      <c r="J68" s="35"/>
+      <c r="K68" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="L68" s="38"/>
-      <c r="M68" s="38"/>
-      <c r="N68" s="38"/>
-      <c r="O68" s="38"/>
-      <c r="P68" s="38" t="s">
+      <c r="L68" s="35"/>
+      <c r="M68" s="35"/>
+      <c r="N68" s="35"/>
+      <c r="O68" s="35"/>
+      <c r="P68" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="Q68" s="38"/>
-      <c r="R68" s="38"/>
-      <c r="S68" s="38"/>
-      <c r="T68" s="38"/>
-      <c r="U68" s="38">
+      <c r="Q68" s="35"/>
+      <c r="R68" s="35"/>
+      <c r="S68" s="35"/>
+      <c r="T68" s="35"/>
+      <c r="U68" s="35">
         <v>2</v>
       </c>
-      <c r="V68" s="38"/>
-      <c r="W68" s="38"/>
-      <c r="X68" s="38" t="s">
+      <c r="V68" s="35"/>
+      <c r="W68" s="35"/>
+      <c r="X68" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="Y68" s="38"/>
-      <c r="Z68" s="38"/>
-      <c r="AA68" s="38"/>
-      <c r="AB68" s="38"/>
-      <c r="AC68" s="38" t="s">
+      <c r="Y68" s="35"/>
+      <c r="Z68" s="35"/>
+      <c r="AA68" s="35"/>
+      <c r="AB68" s="35"/>
+      <c r="AC68" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="AD68" s="38"/>
-      <c r="AE68" s="38"/>
-      <c r="AF68" s="38"/>
-      <c r="AG68" s="38"/>
+      <c r="AD68" s="35"/>
+      <c r="AE68" s="35"/>
+      <c r="AF68" s="35"/>
+      <c r="AG68" s="35"/>
       <c r="AH68" s="15">
         <v>1</v>
       </c>
@@ -5929,7 +5937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A69" s="22" t="s">
         <v>37</v>
       </c>
@@ -5937,48 +5945,48 @@
       <c r="C69" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="D69" s="38" t="s">
+      <c r="D69" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="E69" s="38"/>
-      <c r="F69" s="38"/>
-      <c r="G69" s="38"/>
-      <c r="H69" s="38"/>
-      <c r="I69" s="38"/>
-      <c r="J69" s="38"/>
-      <c r="K69" s="38" t="s">
+      <c r="E69" s="35"/>
+      <c r="F69" s="35"/>
+      <c r="G69" s="35"/>
+      <c r="H69" s="35"/>
+      <c r="I69" s="35"/>
+      <c r="J69" s="35"/>
+      <c r="K69" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="L69" s="38"/>
-      <c r="M69" s="38"/>
-      <c r="N69" s="38"/>
-      <c r="O69" s="38"/>
-      <c r="P69" s="38" t="s">
+      <c r="L69" s="35"/>
+      <c r="M69" s="35"/>
+      <c r="N69" s="35"/>
+      <c r="O69" s="35"/>
+      <c r="P69" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="Q69" s="38"/>
-      <c r="R69" s="38"/>
-      <c r="S69" s="38"/>
-      <c r="T69" s="38"/>
-      <c r="U69" s="38">
+      <c r="Q69" s="35"/>
+      <c r="R69" s="35"/>
+      <c r="S69" s="35"/>
+      <c r="T69" s="35"/>
+      <c r="U69" s="35">
         <v>3</v>
       </c>
-      <c r="V69" s="38"/>
-      <c r="W69" s="38"/>
-      <c r="X69" s="38" t="s">
+      <c r="V69" s="35"/>
+      <c r="W69" s="35"/>
+      <c r="X69" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="Y69" s="38"/>
-      <c r="Z69" s="38"/>
-      <c r="AA69" s="38"/>
-      <c r="AB69" s="38"/>
-      <c r="AC69" s="38" t="s">
+      <c r="Y69" s="35"/>
+      <c r="Z69" s="35"/>
+      <c r="AA69" s="35"/>
+      <c r="AB69" s="35"/>
+      <c r="AC69" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="AD69" s="38"/>
-      <c r="AE69" s="38"/>
-      <c r="AF69" s="38"/>
-      <c r="AG69" s="38"/>
+      <c r="AD69" s="35"/>
+      <c r="AE69" s="35"/>
+      <c r="AF69" s="35"/>
+      <c r="AG69" s="35"/>
       <c r="AH69" s="15">
         <v>1</v>
       </c>
@@ -5986,7 +5994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A70" s="2"/>
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
@@ -6115,48 +6123,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A71" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B71" s="4"/>
       <c r="C71" s="25"/>
-      <c r="D71" s="41" t="s">
+      <c r="D71" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="E71" s="41"/>
-      <c r="F71" s="41"/>
-      <c r="G71" s="41"/>
-      <c r="H71" s="41"/>
-      <c r="I71" s="41"/>
-      <c r="J71" s="41"/>
-      <c r="K71" s="41"/>
-      <c r="L71" s="41"/>
-      <c r="M71" s="41"/>
-      <c r="N71" s="41"/>
-      <c r="O71" s="41"/>
-      <c r="P71" s="41"/>
-      <c r="Q71" s="41"/>
-      <c r="R71" s="41"/>
-      <c r="S71" s="41"/>
-      <c r="T71" s="41"/>
-      <c r="U71" s="41"/>
-      <c r="V71" s="41"/>
-      <c r="W71" s="41"/>
-      <c r="X71" s="61" t="s">
+      <c r="E71" s="49"/>
+      <c r="F71" s="49"/>
+      <c r="G71" s="49"/>
+      <c r="H71" s="49"/>
+      <c r="I71" s="49"/>
+      <c r="J71" s="49"/>
+      <c r="K71" s="49"/>
+      <c r="L71" s="49"/>
+      <c r="M71" s="49"/>
+      <c r="N71" s="49"/>
+      <c r="O71" s="49"/>
+      <c r="P71" s="49"/>
+      <c r="Q71" s="49"/>
+      <c r="R71" s="49"/>
+      <c r="S71" s="49"/>
+      <c r="T71" s="49"/>
+      <c r="U71" s="49"/>
+      <c r="V71" s="49"/>
+      <c r="W71" s="49"/>
+      <c r="X71" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="Y71" s="61"/>
-      <c r="Z71" s="61"/>
-      <c r="AA71" s="61"/>
-      <c r="AB71" s="61"/>
-      <c r="AC71" s="44" t="s">
+      <c r="Y71" s="44"/>
+      <c r="Z71" s="44"/>
+      <c r="AA71" s="44"/>
+      <c r="AB71" s="44"/>
+      <c r="AC71" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="AD71" s="44"/>
-      <c r="AE71" s="44"/>
-      <c r="AF71" s="44"/>
-      <c r="AG71" s="44"/>
+      <c r="AD71" s="45"/>
+      <c r="AE71" s="45"/>
+      <c r="AF71" s="45"/>
+      <c r="AG71" s="45"/>
       <c r="AH71" s="16">
         <v>1</v>
       </c>
@@ -6164,7 +6172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A72" s="26" t="s">
         <v>50</v>
       </c>
@@ -6174,42 +6182,42 @@
       <c r="C72" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="D72" s="40" t="s">
+      <c r="D72" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="E72" s="40"/>
-      <c r="F72" s="40"/>
-      <c r="G72" s="40"/>
-      <c r="H72" s="40"/>
-      <c r="I72" s="40"/>
-      <c r="J72" s="40"/>
-      <c r="K72" s="40"/>
-      <c r="L72" s="40"/>
-      <c r="M72" s="40"/>
-      <c r="N72" s="40"/>
-      <c r="O72" s="40"/>
-      <c r="P72" s="40"/>
-      <c r="Q72" s="40"/>
-      <c r="R72" s="40"/>
-      <c r="S72" s="40"/>
-      <c r="T72" s="40"/>
-      <c r="U72" s="40"/>
-      <c r="V72" s="40"/>
-      <c r="W72" s="40"/>
-      <c r="X72" s="40" t="s">
+      <c r="E72" s="37"/>
+      <c r="F72" s="37"/>
+      <c r="G72" s="37"/>
+      <c r="H72" s="37"/>
+      <c r="I72" s="37"/>
+      <c r="J72" s="37"/>
+      <c r="K72" s="37"/>
+      <c r="L72" s="37"/>
+      <c r="M72" s="37"/>
+      <c r="N72" s="37"/>
+      <c r="O72" s="37"/>
+      <c r="P72" s="37"/>
+      <c r="Q72" s="37"/>
+      <c r="R72" s="37"/>
+      <c r="S72" s="37"/>
+      <c r="T72" s="37"/>
+      <c r="U72" s="37"/>
+      <c r="V72" s="37"/>
+      <c r="W72" s="37"/>
+      <c r="X72" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="Y72" s="40"/>
-      <c r="Z72" s="40"/>
-      <c r="AA72" s="40"/>
-      <c r="AB72" s="40"/>
-      <c r="AC72" s="40" t="s">
+      <c r="Y72" s="37"/>
+      <c r="Z72" s="37"/>
+      <c r="AA72" s="37"/>
+      <c r="AB72" s="37"/>
+      <c r="AC72" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="AD72" s="40"/>
-      <c r="AE72" s="40"/>
-      <c r="AF72" s="40"/>
-      <c r="AG72" s="40"/>
+      <c r="AD72" s="37"/>
+      <c r="AE72" s="37"/>
+      <c r="AF72" s="37"/>
+      <c r="AG72" s="37"/>
       <c r="AH72" s="11">
         <v>1</v>
       </c>
@@ -6217,7 +6225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A73" s="26" t="s">
         <v>50</v>
       </c>
@@ -6227,42 +6235,42 @@
       <c r="C73" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="D73" s="40" t="s">
+      <c r="D73" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="E73" s="40"/>
-      <c r="F73" s="40"/>
-      <c r="G73" s="40"/>
-      <c r="H73" s="40"/>
-      <c r="I73" s="40"/>
-      <c r="J73" s="40"/>
-      <c r="K73" s="40"/>
-      <c r="L73" s="40"/>
-      <c r="M73" s="40"/>
-      <c r="N73" s="40"/>
-      <c r="O73" s="40"/>
-      <c r="P73" s="40"/>
-      <c r="Q73" s="40"/>
-      <c r="R73" s="40"/>
-      <c r="S73" s="40"/>
-      <c r="T73" s="40"/>
-      <c r="U73" s="40"/>
-      <c r="V73" s="40"/>
-      <c r="W73" s="40"/>
-      <c r="X73" s="40" t="s">
+      <c r="E73" s="37"/>
+      <c r="F73" s="37"/>
+      <c r="G73" s="37"/>
+      <c r="H73" s="37"/>
+      <c r="I73" s="37"/>
+      <c r="J73" s="37"/>
+      <c r="K73" s="37"/>
+      <c r="L73" s="37"/>
+      <c r="M73" s="37"/>
+      <c r="N73" s="37"/>
+      <c r="O73" s="37"/>
+      <c r="P73" s="37"/>
+      <c r="Q73" s="37"/>
+      <c r="R73" s="37"/>
+      <c r="S73" s="37"/>
+      <c r="T73" s="37"/>
+      <c r="U73" s="37"/>
+      <c r="V73" s="37"/>
+      <c r="W73" s="37"/>
+      <c r="X73" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="Y73" s="40"/>
-      <c r="Z73" s="40"/>
-      <c r="AA73" s="40"/>
-      <c r="AB73" s="40"/>
-      <c r="AC73" s="40" t="s">
+      <c r="Y73" s="37"/>
+      <c r="Z73" s="37"/>
+      <c r="AA73" s="37"/>
+      <c r="AB73" s="37"/>
+      <c r="AC73" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="AD73" s="40"/>
-      <c r="AE73" s="40"/>
-      <c r="AF73" s="40"/>
-      <c r="AG73" s="40"/>
+      <c r="AD73" s="37"/>
+      <c r="AE73" s="37"/>
+      <c r="AF73" s="37"/>
+      <c r="AG73" s="37"/>
       <c r="AH73" s="11">
         <v>1</v>
       </c>
@@ -6270,7 +6278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A74" s="2"/>
       <c r="B74" s="9"/>
       <c r="C74" s="9"/>
@@ -6399,7 +6407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A75" s="4" t="s">
         <v>65</v>
       </c>
@@ -6408,45 +6416,45 @@
       <c r="D75" s="28">
         <v>20</v>
       </c>
-      <c r="E75" s="45" t="s">
+      <c r="E75" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="F75" s="46"/>
-      <c r="G75" s="46"/>
-      <c r="H75" s="46"/>
-      <c r="I75" s="46"/>
-      <c r="J75" s="46"/>
-      <c r="K75" s="46"/>
-      <c r="L75" s="46"/>
-      <c r="M75" s="46"/>
-      <c r="N75" s="47"/>
+      <c r="F75" s="39"/>
+      <c r="G75" s="39"/>
+      <c r="H75" s="39"/>
+      <c r="I75" s="39"/>
+      <c r="J75" s="39"/>
+      <c r="K75" s="39"/>
+      <c r="L75" s="39"/>
+      <c r="M75" s="39"/>
+      <c r="N75" s="40"/>
       <c r="O75" s="28">
         <v>11</v>
       </c>
-      <c r="P75" s="45" t="s">
+      <c r="P75" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="Q75" s="46"/>
-      <c r="R75" s="46"/>
-      <c r="S75" s="46"/>
-      <c r="T75" s="46"/>
-      <c r="U75" s="46"/>
-      <c r="V75" s="46"/>
-      <c r="W75" s="47"/>
-      <c r="X75" s="61" t="s">
+      <c r="Q75" s="39"/>
+      <c r="R75" s="39"/>
+      <c r="S75" s="39"/>
+      <c r="T75" s="39"/>
+      <c r="U75" s="39"/>
+      <c r="V75" s="39"/>
+      <c r="W75" s="40"/>
+      <c r="X75" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="Y75" s="61"/>
-      <c r="Z75" s="61"/>
-      <c r="AA75" s="61"/>
-      <c r="AB75" s="61"/>
-      <c r="AC75" s="44" t="s">
+      <c r="Y75" s="44"/>
+      <c r="Z75" s="44"/>
+      <c r="AA75" s="44"/>
+      <c r="AB75" s="44"/>
+      <c r="AC75" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="AD75" s="44"/>
-      <c r="AE75" s="44"/>
-      <c r="AF75" s="44"/>
-      <c r="AG75" s="44"/>
+      <c r="AD75" s="45"/>
+      <c r="AE75" s="45"/>
+      <c r="AF75" s="45"/>
+      <c r="AG75" s="45"/>
       <c r="AH75" s="16">
         <v>1</v>
       </c>
@@ -6454,7 +6462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:35" ht="15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A76" s="26" t="s">
         <v>67</v>
       </c>
@@ -6467,45 +6475,45 @@
       <c r="D76" s="29">
         <v>20</v>
       </c>
-      <c r="E76" s="35" t="s">
+      <c r="E76" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="F76" s="36"/>
-      <c r="G76" s="36"/>
-      <c r="H76" s="36"/>
-      <c r="I76" s="36"/>
-      <c r="J76" s="36"/>
-      <c r="K76" s="36"/>
-      <c r="L76" s="36"/>
-      <c r="M76" s="36"/>
-      <c r="N76" s="37"/>
+      <c r="F76" s="42"/>
+      <c r="G76" s="42"/>
+      <c r="H76" s="42"/>
+      <c r="I76" s="42"/>
+      <c r="J76" s="42"/>
+      <c r="K76" s="42"/>
+      <c r="L76" s="42"/>
+      <c r="M76" s="42"/>
+      <c r="N76" s="43"/>
       <c r="O76" s="29">
         <v>11</v>
       </c>
-      <c r="P76" s="35" t="s">
+      <c r="P76" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="Q76" s="36"/>
-      <c r="R76" s="36"/>
-      <c r="S76" s="36"/>
-      <c r="T76" s="36"/>
-      <c r="U76" s="36"/>
-      <c r="V76" s="36"/>
-      <c r="W76" s="37"/>
-      <c r="X76" s="40" t="s">
+      <c r="Q76" s="42"/>
+      <c r="R76" s="42"/>
+      <c r="S76" s="42"/>
+      <c r="T76" s="42"/>
+      <c r="U76" s="42"/>
+      <c r="V76" s="42"/>
+      <c r="W76" s="43"/>
+      <c r="X76" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="Y76" s="40"/>
-      <c r="Z76" s="40"/>
-      <c r="AA76" s="40"/>
-      <c r="AB76" s="40"/>
-      <c r="AC76" s="40" t="s">
+      <c r="Y76" s="37"/>
+      <c r="Z76" s="37"/>
+      <c r="AA76" s="37"/>
+      <c r="AB76" s="37"/>
+      <c r="AC76" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="AD76" s="40"/>
-      <c r="AE76" s="40"/>
-      <c r="AF76" s="40"/>
-      <c r="AG76" s="40"/>
+      <c r="AD76" s="37"/>
+      <c r="AE76" s="37"/>
+      <c r="AF76" s="37"/>
+      <c r="AG76" s="37"/>
       <c r="AH76" s="11">
         <v>1</v>
       </c>
@@ -6515,25 +6523,310 @@
     </row>
   </sheetData>
   <mergeCells count="347">
-    <mergeCell ref="D54:O54"/>
-    <mergeCell ref="P54:T54"/>
-    <mergeCell ref="U54:W54"/>
-    <mergeCell ref="X54:AB54"/>
-    <mergeCell ref="AC54:AG54"/>
-    <mergeCell ref="P48:T48"/>
-    <mergeCell ref="U48:W48"/>
-    <mergeCell ref="D53:O53"/>
-    <mergeCell ref="P53:T53"/>
-    <mergeCell ref="P46:T46"/>
-    <mergeCell ref="P47:T47"/>
-    <mergeCell ref="U47:W47"/>
-    <mergeCell ref="X47:AB47"/>
-    <mergeCell ref="U46:W46"/>
-    <mergeCell ref="X46:AB46"/>
-    <mergeCell ref="AC46:AG46"/>
-    <mergeCell ref="U53:W53"/>
-    <mergeCell ref="X53:AB53"/>
-    <mergeCell ref="AC53:AG53"/>
+    <mergeCell ref="X63:AA63"/>
+    <mergeCell ref="X48:AB48"/>
+    <mergeCell ref="AC48:AG48"/>
+    <mergeCell ref="P49:T49"/>
+    <mergeCell ref="U49:W49"/>
+    <mergeCell ref="X49:AB49"/>
+    <mergeCell ref="AC49:AG49"/>
+    <mergeCell ref="AC47:AG47"/>
+    <mergeCell ref="U63:W63"/>
+    <mergeCell ref="AC63:AG63"/>
+    <mergeCell ref="P59:T59"/>
+    <mergeCell ref="U59:W59"/>
+    <mergeCell ref="AC59:AG59"/>
+    <mergeCell ref="X55:AB55"/>
+    <mergeCell ref="AC55:AG55"/>
+    <mergeCell ref="D65:J65"/>
+    <mergeCell ref="K65:O65"/>
+    <mergeCell ref="P65:T65"/>
+    <mergeCell ref="U65:W65"/>
+    <mergeCell ref="X65:AB65"/>
+    <mergeCell ref="AC65:AG65"/>
+    <mergeCell ref="E57:J57"/>
+    <mergeCell ref="X57:AA57"/>
+    <mergeCell ref="E58:J58"/>
+    <mergeCell ref="E59:J59"/>
+    <mergeCell ref="E60:J60"/>
+    <mergeCell ref="E61:J61"/>
+    <mergeCell ref="E62:J62"/>
+    <mergeCell ref="E63:J63"/>
+    <mergeCell ref="X58:AA58"/>
+    <mergeCell ref="X59:AA59"/>
+    <mergeCell ref="AC57:AG57"/>
+    <mergeCell ref="K57:O57"/>
+    <mergeCell ref="K58:O58"/>
+    <mergeCell ref="P58:T58"/>
+    <mergeCell ref="U58:W58"/>
+    <mergeCell ref="P57:T57"/>
+    <mergeCell ref="K63:O63"/>
+    <mergeCell ref="P63:T63"/>
+    <mergeCell ref="P44:T44"/>
+    <mergeCell ref="U44:W44"/>
+    <mergeCell ref="X44:AB44"/>
+    <mergeCell ref="AC44:AG44"/>
+    <mergeCell ref="P45:T45"/>
+    <mergeCell ref="U45:W45"/>
+    <mergeCell ref="X45:AB45"/>
+    <mergeCell ref="AC45:AG45"/>
+    <mergeCell ref="P42:T42"/>
+    <mergeCell ref="U42:W42"/>
+    <mergeCell ref="X42:AB42"/>
+    <mergeCell ref="AC42:AG42"/>
+    <mergeCell ref="P43:T43"/>
+    <mergeCell ref="U43:W43"/>
+    <mergeCell ref="X43:AB43"/>
+    <mergeCell ref="AC43:AG43"/>
+    <mergeCell ref="U41:W41"/>
+    <mergeCell ref="X41:AB41"/>
+    <mergeCell ref="AC41:AG41"/>
+    <mergeCell ref="D40:O40"/>
+    <mergeCell ref="P40:T40"/>
+    <mergeCell ref="U40:W40"/>
+    <mergeCell ref="X40:AB40"/>
+    <mergeCell ref="AC40:AG40"/>
+    <mergeCell ref="K3:O3"/>
+    <mergeCell ref="P3:T3"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="X3:AB3"/>
+    <mergeCell ref="AC3:AG3"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="P7:T7"/>
+    <mergeCell ref="U7:W7"/>
+    <mergeCell ref="X7:AB7"/>
+    <mergeCell ref="AC7:AG7"/>
+    <mergeCell ref="K6:O6"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="U6:W6"/>
+    <mergeCell ref="X6:AB6"/>
+    <mergeCell ref="AC6:AG6"/>
+    <mergeCell ref="K9:O9"/>
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="X2:AB2"/>
+    <mergeCell ref="AC2:AG2"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="P5:T5"/>
+    <mergeCell ref="U5:W5"/>
+    <mergeCell ref="X5:AB5"/>
+    <mergeCell ref="AC5:AG5"/>
+    <mergeCell ref="K4:O4"/>
+    <mergeCell ref="P4:T4"/>
+    <mergeCell ref="U4:W4"/>
+    <mergeCell ref="X4:AB4"/>
+    <mergeCell ref="AC4:AG4"/>
+    <mergeCell ref="P9:T9"/>
+    <mergeCell ref="U9:W9"/>
+    <mergeCell ref="X9:AB9"/>
+    <mergeCell ref="AC9:AG9"/>
+    <mergeCell ref="K8:O8"/>
+    <mergeCell ref="P8:T8"/>
+    <mergeCell ref="U8:W8"/>
+    <mergeCell ref="X8:AB8"/>
+    <mergeCell ref="AC8:AG8"/>
+    <mergeCell ref="K11:O11"/>
+    <mergeCell ref="P11:T11"/>
+    <mergeCell ref="U11:W11"/>
+    <mergeCell ref="X11:AB11"/>
+    <mergeCell ref="AC11:AG11"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="P10:T10"/>
+    <mergeCell ref="U10:W10"/>
+    <mergeCell ref="X10:AB10"/>
+    <mergeCell ref="AC10:AG10"/>
+    <mergeCell ref="P22:T22"/>
+    <mergeCell ref="U22:W22"/>
+    <mergeCell ref="X22:AB22"/>
+    <mergeCell ref="AC22:AG22"/>
+    <mergeCell ref="D22:O22"/>
+    <mergeCell ref="K12:O12"/>
+    <mergeCell ref="P12:T12"/>
+    <mergeCell ref="U12:W12"/>
+    <mergeCell ref="X12:AB12"/>
+    <mergeCell ref="AC12:AG12"/>
+    <mergeCell ref="AC13:AG13"/>
+    <mergeCell ref="AC14:AG14"/>
+    <mergeCell ref="AC15:AG15"/>
+    <mergeCell ref="AC16:AG16"/>
+    <mergeCell ref="AC17:AG17"/>
+    <mergeCell ref="AC18:AG18"/>
+    <mergeCell ref="AC19:AG19"/>
+    <mergeCell ref="AC20:AG20"/>
+    <mergeCell ref="X13:AB13"/>
+    <mergeCell ref="X14:AB14"/>
+    <mergeCell ref="X15:AB15"/>
+    <mergeCell ref="X16:AB16"/>
+    <mergeCell ref="X17:AB17"/>
+    <mergeCell ref="X18:AB18"/>
+    <mergeCell ref="D23:O23"/>
+    <mergeCell ref="P23:T23"/>
+    <mergeCell ref="U23:W23"/>
+    <mergeCell ref="X23:AB23"/>
+    <mergeCell ref="AC23:AG23"/>
+    <mergeCell ref="P24:T24"/>
+    <mergeCell ref="U24:W24"/>
+    <mergeCell ref="X24:AB24"/>
+    <mergeCell ref="AC24:AG24"/>
+    <mergeCell ref="K24:O24"/>
+    <mergeCell ref="U27:W27"/>
+    <mergeCell ref="X27:AB27"/>
+    <mergeCell ref="AC27:AG27"/>
+    <mergeCell ref="P28:T28"/>
+    <mergeCell ref="U28:W28"/>
+    <mergeCell ref="X28:AB28"/>
+    <mergeCell ref="AC28:AG28"/>
+    <mergeCell ref="D25:O25"/>
+    <mergeCell ref="P25:T25"/>
+    <mergeCell ref="U25:W25"/>
+    <mergeCell ref="X25:AB25"/>
+    <mergeCell ref="AC25:AG25"/>
+    <mergeCell ref="D26:O26"/>
+    <mergeCell ref="P26:T26"/>
+    <mergeCell ref="U26:W26"/>
+    <mergeCell ref="X26:AB26"/>
+    <mergeCell ref="AC26:AG26"/>
+    <mergeCell ref="K28:O28"/>
+    <mergeCell ref="X31:AB31"/>
+    <mergeCell ref="AC31:AG31"/>
+    <mergeCell ref="K29:O29"/>
+    <mergeCell ref="P29:T29"/>
+    <mergeCell ref="U29:W29"/>
+    <mergeCell ref="X29:AB29"/>
+    <mergeCell ref="AC29:AG29"/>
+    <mergeCell ref="D30:O30"/>
+    <mergeCell ref="P30:T30"/>
+    <mergeCell ref="U30:W30"/>
+    <mergeCell ref="X30:AB30"/>
+    <mergeCell ref="AC30:AG30"/>
+    <mergeCell ref="K62:O62"/>
+    <mergeCell ref="P62:T62"/>
+    <mergeCell ref="U62:W62"/>
+    <mergeCell ref="AC62:AG62"/>
+    <mergeCell ref="K61:O61"/>
+    <mergeCell ref="P61:T61"/>
+    <mergeCell ref="U61:W61"/>
+    <mergeCell ref="AC61:AG61"/>
+    <mergeCell ref="X60:AA60"/>
+    <mergeCell ref="X61:AA61"/>
+    <mergeCell ref="X62:AA62"/>
+    <mergeCell ref="X32:AB32"/>
+    <mergeCell ref="AC32:AG32"/>
+    <mergeCell ref="U39:W39"/>
+    <mergeCell ref="X39:AB39"/>
+    <mergeCell ref="AC39:AG39"/>
+    <mergeCell ref="D71:W71"/>
+    <mergeCell ref="D66:J66"/>
+    <mergeCell ref="K66:O66"/>
+    <mergeCell ref="P66:T66"/>
+    <mergeCell ref="U66:W66"/>
+    <mergeCell ref="X66:AB66"/>
+    <mergeCell ref="AC66:AG66"/>
+    <mergeCell ref="X71:AB71"/>
+    <mergeCell ref="AC71:AG71"/>
+    <mergeCell ref="D67:J67"/>
+    <mergeCell ref="K67:O67"/>
+    <mergeCell ref="P67:T67"/>
+    <mergeCell ref="U67:W67"/>
+    <mergeCell ref="D69:J69"/>
+    <mergeCell ref="K69:O69"/>
+    <mergeCell ref="P69:T69"/>
+    <mergeCell ref="P33:T33"/>
+    <mergeCell ref="U33:W33"/>
+    <mergeCell ref="AC69:AG69"/>
+    <mergeCell ref="X33:AB33"/>
+    <mergeCell ref="AC33:AG33"/>
+    <mergeCell ref="D37:O37"/>
+    <mergeCell ref="P37:T37"/>
+    <mergeCell ref="U37:W37"/>
+    <mergeCell ref="X37:AB37"/>
+    <mergeCell ref="AC37:AG37"/>
+    <mergeCell ref="D36:O36"/>
+    <mergeCell ref="U35:W35"/>
+    <mergeCell ref="X35:AB35"/>
+    <mergeCell ref="AC35:AG35"/>
+    <mergeCell ref="D34:O34"/>
+    <mergeCell ref="P34:T34"/>
+    <mergeCell ref="U34:W34"/>
+    <mergeCell ref="X34:AB34"/>
+    <mergeCell ref="AC34:AG34"/>
+    <mergeCell ref="P36:T36"/>
+    <mergeCell ref="U36:W36"/>
+    <mergeCell ref="X36:AB36"/>
+    <mergeCell ref="AC36:AG36"/>
+    <mergeCell ref="D35:O35"/>
+    <mergeCell ref="P35:T35"/>
+    <mergeCell ref="D33:O33"/>
+    <mergeCell ref="X38:AB38"/>
+    <mergeCell ref="AC38:AG38"/>
+    <mergeCell ref="K60:O60"/>
+    <mergeCell ref="P60:T60"/>
+    <mergeCell ref="U60:W60"/>
+    <mergeCell ref="AC60:AG60"/>
+    <mergeCell ref="AC58:AG58"/>
+    <mergeCell ref="K59:O59"/>
+    <mergeCell ref="X50:AB50"/>
+    <mergeCell ref="AC50:AG50"/>
+    <mergeCell ref="D51:O51"/>
+    <mergeCell ref="P51:T51"/>
+    <mergeCell ref="U51:W51"/>
+    <mergeCell ref="X51:AB51"/>
+    <mergeCell ref="AC51:AG51"/>
+    <mergeCell ref="D52:O52"/>
+    <mergeCell ref="P52:T52"/>
+    <mergeCell ref="U52:W52"/>
+    <mergeCell ref="X52:AB52"/>
+    <mergeCell ref="AC52:AG52"/>
+    <mergeCell ref="U57:W57"/>
+    <mergeCell ref="D55:O55"/>
+    <mergeCell ref="P55:T55"/>
+    <mergeCell ref="U55:W55"/>
+    <mergeCell ref="E75:N75"/>
+    <mergeCell ref="P75:W75"/>
+    <mergeCell ref="E76:N76"/>
+    <mergeCell ref="P76:W76"/>
+    <mergeCell ref="X75:AB75"/>
+    <mergeCell ref="AC75:AG75"/>
+    <mergeCell ref="X76:AB76"/>
+    <mergeCell ref="AC76:AG76"/>
+    <mergeCell ref="X67:AB67"/>
+    <mergeCell ref="AC67:AG67"/>
+    <mergeCell ref="D68:J68"/>
+    <mergeCell ref="K68:O68"/>
+    <mergeCell ref="P68:T68"/>
+    <mergeCell ref="U68:W68"/>
+    <mergeCell ref="X68:AB68"/>
+    <mergeCell ref="AC68:AG68"/>
+    <mergeCell ref="D72:W72"/>
+    <mergeCell ref="D73:W73"/>
+    <mergeCell ref="X73:AB73"/>
+    <mergeCell ref="AC73:AG73"/>
+    <mergeCell ref="X72:AB72"/>
+    <mergeCell ref="AC72:AG72"/>
+    <mergeCell ref="U69:W69"/>
+    <mergeCell ref="X69:AB69"/>
+    <mergeCell ref="X19:AB19"/>
+    <mergeCell ref="X20:AB20"/>
+    <mergeCell ref="U13:W13"/>
+    <mergeCell ref="U14:W14"/>
+    <mergeCell ref="U15:W15"/>
+    <mergeCell ref="U16:W16"/>
+    <mergeCell ref="U17:W17"/>
+    <mergeCell ref="U18:W18"/>
+    <mergeCell ref="U19:W19"/>
+    <mergeCell ref="U20:W20"/>
+    <mergeCell ref="K13:O13"/>
+    <mergeCell ref="P13:T13"/>
+    <mergeCell ref="K14:O14"/>
+    <mergeCell ref="P14:T14"/>
+    <mergeCell ref="K15:O15"/>
+    <mergeCell ref="P15:T15"/>
+    <mergeCell ref="K16:O16"/>
+    <mergeCell ref="P16:T16"/>
+    <mergeCell ref="K17:O17"/>
+    <mergeCell ref="P17:T17"/>
     <mergeCell ref="K18:O18"/>
     <mergeCell ref="P18:T18"/>
     <mergeCell ref="K19:O19"/>
@@ -6558,310 +6851,25 @@
     <mergeCell ref="D38:O38"/>
     <mergeCell ref="P38:T38"/>
     <mergeCell ref="U31:W31"/>
-    <mergeCell ref="K13:O13"/>
-    <mergeCell ref="P13:T13"/>
-    <mergeCell ref="K14:O14"/>
-    <mergeCell ref="P14:T14"/>
-    <mergeCell ref="K15:O15"/>
-    <mergeCell ref="P15:T15"/>
-    <mergeCell ref="K16:O16"/>
-    <mergeCell ref="P16:T16"/>
-    <mergeCell ref="K17:O17"/>
-    <mergeCell ref="P17:T17"/>
-    <mergeCell ref="X19:AB19"/>
-    <mergeCell ref="X20:AB20"/>
-    <mergeCell ref="U13:W13"/>
-    <mergeCell ref="U14:W14"/>
-    <mergeCell ref="U15:W15"/>
-    <mergeCell ref="U16:W16"/>
-    <mergeCell ref="U17:W17"/>
-    <mergeCell ref="U18:W18"/>
-    <mergeCell ref="U19:W19"/>
-    <mergeCell ref="U20:W20"/>
-    <mergeCell ref="E75:N75"/>
-    <mergeCell ref="P75:W75"/>
-    <mergeCell ref="E76:N76"/>
-    <mergeCell ref="P76:W76"/>
-    <mergeCell ref="X75:AB75"/>
-    <mergeCell ref="AC75:AG75"/>
-    <mergeCell ref="X76:AB76"/>
-    <mergeCell ref="AC76:AG76"/>
-    <mergeCell ref="X67:AB67"/>
-    <mergeCell ref="AC67:AG67"/>
-    <mergeCell ref="D68:J68"/>
-    <mergeCell ref="K68:O68"/>
-    <mergeCell ref="P68:T68"/>
-    <mergeCell ref="U68:W68"/>
-    <mergeCell ref="X68:AB68"/>
-    <mergeCell ref="AC68:AG68"/>
-    <mergeCell ref="D72:W72"/>
-    <mergeCell ref="D73:W73"/>
-    <mergeCell ref="X73:AB73"/>
-    <mergeCell ref="AC73:AG73"/>
-    <mergeCell ref="X72:AB72"/>
-    <mergeCell ref="AC72:AG72"/>
-    <mergeCell ref="U69:W69"/>
-    <mergeCell ref="X69:AB69"/>
-    <mergeCell ref="X38:AB38"/>
-    <mergeCell ref="AC38:AG38"/>
-    <mergeCell ref="K60:O60"/>
-    <mergeCell ref="P60:T60"/>
-    <mergeCell ref="U60:W60"/>
-    <mergeCell ref="AC60:AG60"/>
-    <mergeCell ref="AC58:AG58"/>
-    <mergeCell ref="K59:O59"/>
-    <mergeCell ref="X50:AB50"/>
-    <mergeCell ref="AC50:AG50"/>
-    <mergeCell ref="D51:O51"/>
-    <mergeCell ref="P51:T51"/>
-    <mergeCell ref="U51:W51"/>
-    <mergeCell ref="X51:AB51"/>
-    <mergeCell ref="AC51:AG51"/>
-    <mergeCell ref="D52:O52"/>
-    <mergeCell ref="P52:T52"/>
-    <mergeCell ref="U52:W52"/>
-    <mergeCell ref="X52:AB52"/>
-    <mergeCell ref="AC52:AG52"/>
-    <mergeCell ref="U57:W57"/>
-    <mergeCell ref="D55:O55"/>
-    <mergeCell ref="P55:T55"/>
-    <mergeCell ref="U55:W55"/>
-    <mergeCell ref="X33:AB33"/>
-    <mergeCell ref="AC33:AG33"/>
-    <mergeCell ref="D37:O37"/>
-    <mergeCell ref="P37:T37"/>
-    <mergeCell ref="U37:W37"/>
-    <mergeCell ref="X37:AB37"/>
-    <mergeCell ref="AC37:AG37"/>
-    <mergeCell ref="D36:O36"/>
-    <mergeCell ref="U35:W35"/>
-    <mergeCell ref="X35:AB35"/>
-    <mergeCell ref="AC35:AG35"/>
-    <mergeCell ref="D34:O34"/>
-    <mergeCell ref="P34:T34"/>
-    <mergeCell ref="U34:W34"/>
-    <mergeCell ref="X34:AB34"/>
-    <mergeCell ref="AC34:AG34"/>
-    <mergeCell ref="P36:T36"/>
-    <mergeCell ref="U36:W36"/>
-    <mergeCell ref="X36:AB36"/>
-    <mergeCell ref="AC36:AG36"/>
-    <mergeCell ref="D35:O35"/>
-    <mergeCell ref="P35:T35"/>
-    <mergeCell ref="D33:O33"/>
-    <mergeCell ref="X32:AB32"/>
-    <mergeCell ref="AC32:AG32"/>
-    <mergeCell ref="U39:W39"/>
-    <mergeCell ref="X39:AB39"/>
-    <mergeCell ref="AC39:AG39"/>
-    <mergeCell ref="D71:W71"/>
-    <mergeCell ref="D66:J66"/>
-    <mergeCell ref="K66:O66"/>
-    <mergeCell ref="P66:T66"/>
-    <mergeCell ref="U66:W66"/>
-    <mergeCell ref="X66:AB66"/>
-    <mergeCell ref="AC66:AG66"/>
-    <mergeCell ref="X71:AB71"/>
-    <mergeCell ref="AC71:AG71"/>
-    <mergeCell ref="D67:J67"/>
-    <mergeCell ref="K67:O67"/>
-    <mergeCell ref="P67:T67"/>
-    <mergeCell ref="U67:W67"/>
-    <mergeCell ref="D69:J69"/>
-    <mergeCell ref="K69:O69"/>
-    <mergeCell ref="P69:T69"/>
-    <mergeCell ref="P33:T33"/>
-    <mergeCell ref="U33:W33"/>
-    <mergeCell ref="AC69:AG69"/>
-    <mergeCell ref="K62:O62"/>
-    <mergeCell ref="P62:T62"/>
-    <mergeCell ref="U62:W62"/>
-    <mergeCell ref="AC62:AG62"/>
-    <mergeCell ref="K61:O61"/>
-    <mergeCell ref="P61:T61"/>
-    <mergeCell ref="U61:W61"/>
-    <mergeCell ref="AC61:AG61"/>
-    <mergeCell ref="X60:AA60"/>
-    <mergeCell ref="X61:AA61"/>
-    <mergeCell ref="X62:AA62"/>
-    <mergeCell ref="X31:AB31"/>
-    <mergeCell ref="AC31:AG31"/>
-    <mergeCell ref="K29:O29"/>
-    <mergeCell ref="P29:T29"/>
-    <mergeCell ref="U29:W29"/>
-    <mergeCell ref="X29:AB29"/>
-    <mergeCell ref="AC29:AG29"/>
-    <mergeCell ref="D30:O30"/>
-    <mergeCell ref="P30:T30"/>
-    <mergeCell ref="U30:W30"/>
-    <mergeCell ref="X30:AB30"/>
-    <mergeCell ref="AC30:AG30"/>
-    <mergeCell ref="U27:W27"/>
-    <mergeCell ref="X27:AB27"/>
-    <mergeCell ref="AC27:AG27"/>
-    <mergeCell ref="P28:T28"/>
-    <mergeCell ref="U28:W28"/>
-    <mergeCell ref="X28:AB28"/>
-    <mergeCell ref="AC28:AG28"/>
-    <mergeCell ref="D25:O25"/>
-    <mergeCell ref="P25:T25"/>
-    <mergeCell ref="U25:W25"/>
-    <mergeCell ref="X25:AB25"/>
-    <mergeCell ref="AC25:AG25"/>
-    <mergeCell ref="D26:O26"/>
-    <mergeCell ref="P26:T26"/>
-    <mergeCell ref="U26:W26"/>
-    <mergeCell ref="X26:AB26"/>
-    <mergeCell ref="AC26:AG26"/>
-    <mergeCell ref="K28:O28"/>
-    <mergeCell ref="D23:O23"/>
-    <mergeCell ref="P23:T23"/>
-    <mergeCell ref="U23:W23"/>
-    <mergeCell ref="X23:AB23"/>
-    <mergeCell ref="AC23:AG23"/>
-    <mergeCell ref="P24:T24"/>
-    <mergeCell ref="U24:W24"/>
-    <mergeCell ref="X24:AB24"/>
-    <mergeCell ref="AC24:AG24"/>
-    <mergeCell ref="K24:O24"/>
-    <mergeCell ref="P22:T22"/>
-    <mergeCell ref="U22:W22"/>
-    <mergeCell ref="X22:AB22"/>
-    <mergeCell ref="AC22:AG22"/>
-    <mergeCell ref="D22:O22"/>
-    <mergeCell ref="K12:O12"/>
-    <mergeCell ref="P12:T12"/>
-    <mergeCell ref="U12:W12"/>
-    <mergeCell ref="X12:AB12"/>
-    <mergeCell ref="AC12:AG12"/>
-    <mergeCell ref="AC13:AG13"/>
-    <mergeCell ref="AC14:AG14"/>
-    <mergeCell ref="AC15:AG15"/>
-    <mergeCell ref="AC16:AG16"/>
-    <mergeCell ref="AC17:AG17"/>
-    <mergeCell ref="AC18:AG18"/>
-    <mergeCell ref="AC19:AG19"/>
-    <mergeCell ref="AC20:AG20"/>
-    <mergeCell ref="X13:AB13"/>
-    <mergeCell ref="X14:AB14"/>
-    <mergeCell ref="X15:AB15"/>
-    <mergeCell ref="X16:AB16"/>
-    <mergeCell ref="X17:AB17"/>
-    <mergeCell ref="X18:AB18"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="P11:T11"/>
-    <mergeCell ref="U11:W11"/>
-    <mergeCell ref="X11:AB11"/>
-    <mergeCell ref="AC11:AG11"/>
-    <mergeCell ref="K10:O10"/>
-    <mergeCell ref="P10:T10"/>
-    <mergeCell ref="U10:W10"/>
-    <mergeCell ref="X10:AB10"/>
-    <mergeCell ref="AC10:AG10"/>
-    <mergeCell ref="P9:T9"/>
-    <mergeCell ref="U9:W9"/>
-    <mergeCell ref="X9:AB9"/>
-    <mergeCell ref="AC9:AG9"/>
-    <mergeCell ref="K8:O8"/>
-    <mergeCell ref="P8:T8"/>
-    <mergeCell ref="U8:W8"/>
-    <mergeCell ref="X8:AB8"/>
-    <mergeCell ref="AC8:AG8"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="P2:T2"/>
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="X2:AB2"/>
-    <mergeCell ref="AC2:AG2"/>
-    <mergeCell ref="K5:O5"/>
-    <mergeCell ref="P5:T5"/>
-    <mergeCell ref="U5:W5"/>
-    <mergeCell ref="X5:AB5"/>
-    <mergeCell ref="AC5:AG5"/>
-    <mergeCell ref="K4:O4"/>
-    <mergeCell ref="P4:T4"/>
-    <mergeCell ref="U4:W4"/>
-    <mergeCell ref="X4:AB4"/>
-    <mergeCell ref="AC4:AG4"/>
-    <mergeCell ref="U41:W41"/>
-    <mergeCell ref="X41:AB41"/>
-    <mergeCell ref="AC41:AG41"/>
-    <mergeCell ref="D40:O40"/>
-    <mergeCell ref="P40:T40"/>
-    <mergeCell ref="U40:W40"/>
-    <mergeCell ref="X40:AB40"/>
-    <mergeCell ref="AC40:AG40"/>
-    <mergeCell ref="K3:O3"/>
-    <mergeCell ref="P3:T3"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="X3:AB3"/>
-    <mergeCell ref="AC3:AG3"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="P7:T7"/>
-    <mergeCell ref="U7:W7"/>
-    <mergeCell ref="X7:AB7"/>
-    <mergeCell ref="AC7:AG7"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="P6:T6"/>
-    <mergeCell ref="U6:W6"/>
-    <mergeCell ref="X6:AB6"/>
-    <mergeCell ref="AC6:AG6"/>
-    <mergeCell ref="K9:O9"/>
-    <mergeCell ref="P44:T44"/>
-    <mergeCell ref="U44:W44"/>
-    <mergeCell ref="X44:AB44"/>
-    <mergeCell ref="AC44:AG44"/>
-    <mergeCell ref="P45:T45"/>
-    <mergeCell ref="U45:W45"/>
-    <mergeCell ref="X45:AB45"/>
-    <mergeCell ref="AC45:AG45"/>
-    <mergeCell ref="P42:T42"/>
-    <mergeCell ref="U42:W42"/>
-    <mergeCell ref="X42:AB42"/>
-    <mergeCell ref="AC42:AG42"/>
-    <mergeCell ref="P43:T43"/>
-    <mergeCell ref="U43:W43"/>
-    <mergeCell ref="X43:AB43"/>
-    <mergeCell ref="AC43:AG43"/>
-    <mergeCell ref="D65:J65"/>
-    <mergeCell ref="K65:O65"/>
-    <mergeCell ref="P65:T65"/>
-    <mergeCell ref="U65:W65"/>
-    <mergeCell ref="X65:AB65"/>
-    <mergeCell ref="AC65:AG65"/>
-    <mergeCell ref="E57:J57"/>
-    <mergeCell ref="X57:AA57"/>
-    <mergeCell ref="E58:J58"/>
-    <mergeCell ref="E59:J59"/>
-    <mergeCell ref="E60:J60"/>
-    <mergeCell ref="E61:J61"/>
-    <mergeCell ref="E62:J62"/>
-    <mergeCell ref="E63:J63"/>
-    <mergeCell ref="X58:AA58"/>
-    <mergeCell ref="X59:AA59"/>
-    <mergeCell ref="AC57:AG57"/>
-    <mergeCell ref="K57:O57"/>
-    <mergeCell ref="K58:O58"/>
-    <mergeCell ref="P58:T58"/>
-    <mergeCell ref="U58:W58"/>
-    <mergeCell ref="P57:T57"/>
-    <mergeCell ref="K63:O63"/>
-    <mergeCell ref="P63:T63"/>
-    <mergeCell ref="X63:AA63"/>
-    <mergeCell ref="X48:AB48"/>
-    <mergeCell ref="AC48:AG48"/>
-    <mergeCell ref="P49:T49"/>
-    <mergeCell ref="U49:W49"/>
-    <mergeCell ref="X49:AB49"/>
-    <mergeCell ref="AC49:AG49"/>
-    <mergeCell ref="AC47:AG47"/>
-    <mergeCell ref="U63:W63"/>
-    <mergeCell ref="AC63:AG63"/>
-    <mergeCell ref="P59:T59"/>
-    <mergeCell ref="U59:W59"/>
-    <mergeCell ref="AC59:AG59"/>
-    <mergeCell ref="X55:AB55"/>
-    <mergeCell ref="AC55:AG55"/>
+    <mergeCell ref="P46:T46"/>
+    <mergeCell ref="P47:T47"/>
+    <mergeCell ref="U47:W47"/>
+    <mergeCell ref="X47:AB47"/>
+    <mergeCell ref="U46:W46"/>
+    <mergeCell ref="X46:AB46"/>
+    <mergeCell ref="AC46:AG46"/>
+    <mergeCell ref="U53:W53"/>
+    <mergeCell ref="X53:AB53"/>
+    <mergeCell ref="AC53:AG53"/>
+    <mergeCell ref="D54:O54"/>
+    <mergeCell ref="P54:T54"/>
+    <mergeCell ref="U54:W54"/>
+    <mergeCell ref="X54:AB54"/>
+    <mergeCell ref="AC54:AG54"/>
+    <mergeCell ref="P48:T48"/>
+    <mergeCell ref="U48:W48"/>
+    <mergeCell ref="D53:O53"/>
+    <mergeCell ref="P53:T53"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
